--- a/matching and patching/4_stenosis/5_Compare/adjusted_centerline_data.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/adjusted_centerline_data.xlsx
@@ -603,94 +603,94 @@
         <v>2.76119</v>
       </c>
       <c r="C2" t="n">
-        <v>2.750131319190656</v>
+        <v>2.76495</v>
       </c>
       <c r="D2" t="n">
-        <v>2.67553</v>
+        <v>2.78615</v>
       </c>
       <c r="E2" t="n">
-        <v>2.63287</v>
+        <v>2.78615</v>
       </c>
       <c r="F2" t="n">
-        <v>2.69015</v>
+        <v>2.78337</v>
       </c>
       <c r="G2" t="n">
-        <v>2.70706</v>
+        <v>2.789</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68805</v>
+        <v>2.789</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74582</v>
+        <v>2.78939</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72264</v>
+        <v>2.79781</v>
       </c>
       <c r="K2" t="n">
-        <v>2.58768</v>
+        <v>2.79299</v>
       </c>
       <c r="L2" t="n">
-        <v>2.674258457015444</v>
+        <v>2.80298</v>
       </c>
       <c r="M2" t="n">
-        <v>2.620182906723103</v>
+        <v>2.79413</v>
       </c>
       <c r="N2" t="n">
-        <v>2.681576797916607</v>
+        <v>2.71875</v>
       </c>
       <c r="O2" t="n">
-        <v>2.633639981696897</v>
+        <v>2.68969</v>
       </c>
       <c r="P2" t="n">
-        <v>2.638718385903065</v>
+        <v>2.71125</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.695409944430784</v>
+        <v>2.79053</v>
       </c>
       <c r="R2" t="n">
-        <v>2.66860145435896</v>
+        <v>2.78725</v>
       </c>
       <c r="S2" t="n">
-        <v>2.655074067309524</v>
+        <v>2.81397</v>
       </c>
       <c r="T2" t="n">
-        <v>2.687637495227657</v>
+        <v>2.77855</v>
       </c>
       <c r="U2" t="n">
-        <v>2.694338922778522</v>
+        <v>2.80921</v>
       </c>
       <c r="V2" t="n">
-        <v>2.699279196106002</v>
+        <v>2.80994</v>
       </c>
       <c r="W2" t="n">
-        <v>2.695861577294567</v>
+        <v>2.78716</v>
       </c>
       <c r="X2" t="n">
-        <v>2.691401953761658</v>
+        <v>2.78716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.67707</v>
+        <v>2.78716</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.703133957803914</v>
+        <v>2.81741</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.701356848994653</v>
+        <v>2.81741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.679</v>
+        <v>2.81741</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.679</v>
+        <v>2.81741</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.67594</v>
+        <v>2.81741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.69601</v>
+        <v>2.81741</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68602</v>
+        <v>2.81741</v>
       </c>
     </row>
     <row r="3">
@@ -701,94 +701,94 @@
         <v>2.69526300772461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.727263251064023</v>
+        <v>2.72392198194081</v>
       </c>
       <c r="D3" t="n">
-        <v>2.653087987983061</v>
+        <v>2.696492557140518</v>
       </c>
       <c r="E3" t="n">
-        <v>2.615682703758581</v>
+        <v>2.696492557140518</v>
       </c>
       <c r="F3" t="n">
-        <v>2.646757707685513</v>
+        <v>2.714946684550529</v>
       </c>
       <c r="G3" t="n">
-        <v>2.624191936595954</v>
+        <v>2.71450972795972</v>
       </c>
       <c r="H3" t="n">
-        <v>2.606333915006974</v>
+        <v>2.71450972795972</v>
       </c>
       <c r="I3" t="n">
-        <v>2.691414193654492</v>
+        <v>2.714867758938898</v>
       </c>
       <c r="J3" t="n">
-        <v>2.584021156412716</v>
+        <v>2.715050840926119</v>
       </c>
       <c r="K3" t="n">
-        <v>2.56145102098706</v>
+        <v>2.728665284013916</v>
       </c>
       <c r="L3" t="n">
-        <v>2.656932095209148</v>
+        <v>2.738645860527836</v>
       </c>
       <c r="M3" t="n">
-        <v>2.579626187803435</v>
+        <v>2.738135645709155</v>
       </c>
       <c r="N3" t="n">
-        <v>2.648140878959907</v>
+        <v>2.686468467501594</v>
       </c>
       <c r="O3" t="n">
-        <v>2.58851930041893</v>
+        <v>2.673703988176721</v>
       </c>
       <c r="P3" t="n">
-        <v>2.589362248698478</v>
+        <v>2.693980480990386</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.675070102411914</v>
+        <v>2.751867105744311</v>
       </c>
       <c r="R3" t="n">
-        <v>2.665204456869138</v>
+        <v>2.748760901377113</v>
       </c>
       <c r="S3" t="n">
-        <v>2.656017609204312</v>
+        <v>2.773841672376887</v>
       </c>
       <c r="T3" t="n">
-        <v>2.617931002415366</v>
+        <v>2.737599547505644</v>
       </c>
       <c r="U3" t="n">
-        <v>2.61249331107503</v>
+        <v>2.767614966602494</v>
       </c>
       <c r="V3" t="n">
-        <v>2.610127725709525</v>
+        <v>2.740265433907059</v>
       </c>
       <c r="W3" t="n">
-        <v>2.613572828361986</v>
+        <v>2.735357505123414</v>
       </c>
       <c r="X3" t="n">
-        <v>2.65936876056544</v>
+        <v>2.743684739837762</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.660993868178941</v>
+        <v>2.743684739837762</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.667347002748774</v>
+        <v>2.739204610526462</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.664878955148131</v>
+        <v>2.730884486371627</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.663100071910993</v>
+        <v>2.730884486371627</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.663100071910993</v>
+        <v>2.730884486371627</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.671824087686035</v>
+        <v>2.730884486371627</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.664967631578114</v>
+        <v>2.730884486371627</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.681656945831505</v>
+        <v>2.730884486371627</v>
       </c>
     </row>
     <row r="4">
@@ -799,94 +799,94 @@
         <v>2.643824302873575</v>
       </c>
       <c r="C4" t="n">
-        <v>2.682372904683783</v>
+        <v>2.720305087484544</v>
       </c>
       <c r="D4" t="n">
-        <v>2.591572169716788</v>
+        <v>2.673930937330673</v>
       </c>
       <c r="E4" t="n">
-        <v>2.607527506431772</v>
+        <v>2.665110612574017</v>
       </c>
       <c r="F4" t="n">
-        <v>2.62283240714945</v>
+        <v>2.691594192355133</v>
       </c>
       <c r="G4" t="n">
-        <v>2.585389844292517</v>
+        <v>2.703802168755484</v>
       </c>
       <c r="H4" t="n">
-        <v>2.611915381866797</v>
+        <v>2.703802168755484</v>
       </c>
       <c r="I4" t="n">
-        <v>2.665451177810866</v>
+        <v>2.704135033353675</v>
       </c>
       <c r="J4" t="n">
-        <v>2.572446144173705</v>
+        <v>2.711673326373927</v>
       </c>
       <c r="K4" t="n">
-        <v>2.575128673812308</v>
+        <v>2.722523478856597</v>
       </c>
       <c r="L4" t="n">
-        <v>2.637264042085037</v>
+        <v>2.703995934606283</v>
       </c>
       <c r="M4" t="n">
-        <v>2.565983065477442</v>
+        <v>2.703995934606283</v>
       </c>
       <c r="N4" t="n">
-        <v>2.629137930030784</v>
+        <v>2.656197054853777</v>
       </c>
       <c r="O4" t="n">
-        <v>2.554169147823001</v>
+        <v>2.638814704069544</v>
       </c>
       <c r="P4" t="n">
-        <v>2.557904933337587</v>
+        <v>2.638421494414928</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.650298877538261</v>
+        <v>2.70094192612135</v>
       </c>
       <c r="R4" t="n">
-        <v>2.666306622058665</v>
+        <v>2.698122885699493</v>
       </c>
       <c r="S4" t="n">
-        <v>2.652774804963966</v>
+        <v>2.712594559290188</v>
       </c>
       <c r="T4" t="n">
-        <v>2.611807796852232</v>
+        <v>2.712929241632597</v>
       </c>
       <c r="U4" t="n">
-        <v>2.580387164307611</v>
+        <v>2.704064717426264</v>
       </c>
       <c r="V4" t="n">
-        <v>2.590347269516503</v>
+        <v>2.68507128734053</v>
       </c>
       <c r="W4" t="n">
-        <v>2.585143685861163</v>
+        <v>2.693091795158148</v>
       </c>
       <c r="X4" t="n">
-        <v>2.627887335630013</v>
+        <v>2.694259653072333</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.617577364930991</v>
+        <v>2.694259653072333</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.656999995416607</v>
+        <v>2.699889816159876</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.653509856885709</v>
+        <v>2.698928807936865</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.619991359584486</v>
+        <v>2.698928807936865</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.619991359584486</v>
+        <v>2.698928807936865</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.617877667398644</v>
+        <v>2.69108872534464</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.623710589418226</v>
+        <v>2.69108872534464</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616075060917947</v>
+        <v>2.69108872534464</v>
       </c>
     </row>
     <row r="5">
@@ -897,94 +897,94 @@
         <v>2.585868128073549</v>
       </c>
       <c r="C5" t="n">
-        <v>2.626508070097934</v>
+        <v>2.694984126538319</v>
       </c>
       <c r="D5" t="n">
-        <v>2.559289527520431</v>
+        <v>2.666947336784743</v>
       </c>
       <c r="E5" t="n">
-        <v>2.570961296575184</v>
+        <v>2.656985619677291</v>
       </c>
       <c r="F5" t="n">
-        <v>2.545647237902729</v>
+        <v>2.683287162458825</v>
       </c>
       <c r="G5" t="n">
-        <v>2.530888265054958</v>
+        <v>2.698247987513577</v>
       </c>
       <c r="H5" t="n">
-        <v>2.538518879327201</v>
+        <v>2.698247987513577</v>
       </c>
       <c r="I5" t="n">
-        <v>2.598631346664289</v>
+        <v>2.698527619626003</v>
       </c>
       <c r="J5" t="n">
-        <v>2.542004917165738</v>
+        <v>2.699925427168664</v>
       </c>
       <c r="K5" t="n">
-        <v>2.560265442579011</v>
+        <v>2.686795947481622</v>
       </c>
       <c r="L5" t="n">
-        <v>2.611779034597912</v>
+        <v>2.664697448203917</v>
       </c>
       <c r="M5" t="n">
-        <v>2.570204902102303</v>
+        <v>2.664697448203917</v>
       </c>
       <c r="N5" t="n">
-        <v>2.582436112424945</v>
+        <v>2.591438841092214</v>
       </c>
       <c r="O5" t="n">
-        <v>2.510701524252803</v>
+        <v>2.576845772701111</v>
       </c>
       <c r="P5" t="n">
-        <v>2.512799947312345</v>
+        <v>2.600737401140713</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.627405987695714</v>
+        <v>2.634697480518347</v>
       </c>
       <c r="R5" t="n">
-        <v>2.638618913856055</v>
+        <v>2.632299312608053</v>
       </c>
       <c r="S5" t="n">
-        <v>2.617866798538988</v>
+        <v>2.650381815649854</v>
       </c>
       <c r="T5" t="n">
-        <v>2.581435170268979</v>
+        <v>2.63943415958203</v>
       </c>
       <c r="U5" t="n">
-        <v>2.581781575222937</v>
+        <v>2.652296437106557</v>
       </c>
       <c r="V5" t="n">
-        <v>2.578714321249621</v>
+        <v>2.613497167832522</v>
       </c>
       <c r="W5" t="n">
-        <v>2.564337146006614</v>
+        <v>2.666491895162033</v>
       </c>
       <c r="X5" t="n">
-        <v>2.597991220909797</v>
+        <v>2.666491895162033</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.580166418762574</v>
+        <v>2.666491895162033</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.610000048594094</v>
+        <v>2.614343922497073</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.608412993960269</v>
+        <v>2.614343922497073</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.583014430366626</v>
+        <v>2.614343922497073</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.583014430366626</v>
+        <v>2.614343922497073</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.579011065941507</v>
+        <v>2.605577512447493</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.573701004683324</v>
+        <v>2.605577512447493</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.575265696082077</v>
+        <v>2.605577512447493</v>
       </c>
     </row>
     <row r="6">
@@ -995,94 +995,94 @@
         <v>2.538278394008739</v>
       </c>
       <c r="C6" t="n">
-        <v>2.570534704575374</v>
+        <v>2.570262453325785</v>
       </c>
       <c r="D6" t="n">
-        <v>2.539192798537435</v>
+        <v>2.626504024832679</v>
       </c>
       <c r="E6" t="n">
-        <v>2.495406295260429</v>
+        <v>2.616559485637995</v>
       </c>
       <c r="F6" t="n">
-        <v>2.510121690783936</v>
+        <v>2.64221357438715</v>
       </c>
       <c r="G6" t="n">
-        <v>2.476826271435791</v>
+        <v>2.65775118433477</v>
       </c>
       <c r="H6" t="n">
-        <v>2.467873332471001</v>
+        <v>2.65775118433477</v>
       </c>
       <c r="I6" t="n">
-        <v>2.53280243434834</v>
+        <v>2.636392587436982</v>
       </c>
       <c r="J6" t="n">
-        <v>2.418975920332897</v>
+        <v>2.658011261876718</v>
       </c>
       <c r="K6" t="n">
-        <v>2.474000015843274</v>
+        <v>2.617310098985685</v>
       </c>
       <c r="L6" t="n">
-        <v>2.55907266266198</v>
+        <v>2.61245407463215</v>
       </c>
       <c r="M6" t="n">
-        <v>2.544866621659546</v>
+        <v>2.61245407463215</v>
       </c>
       <c r="N6" t="n">
-        <v>2.539810892351157</v>
+        <v>2.504039964551072</v>
       </c>
       <c r="O6" t="n">
-        <v>2.468836734988876</v>
+        <v>2.477343373555015</v>
       </c>
       <c r="P6" t="n">
-        <v>2.472259958134285</v>
+        <v>2.477998388687028</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.550297646375975</v>
+        <v>2.564996462511145</v>
       </c>
       <c r="R6" t="n">
-        <v>2.579627729903208</v>
+        <v>2.563169315895965</v>
       </c>
       <c r="S6" t="n">
-        <v>2.585912216109969</v>
+        <v>2.547014983015364</v>
       </c>
       <c r="T6" t="n">
-        <v>2.54512193377574</v>
+        <v>2.539300525517166</v>
       </c>
       <c r="U6" t="n">
-        <v>2.529101319294482</v>
+        <v>2.546708784676206</v>
       </c>
       <c r="V6" t="n">
-        <v>2.543265935564702</v>
+        <v>2.583182416277346</v>
       </c>
       <c r="W6" t="n">
-        <v>2.538097809031073</v>
+        <v>2.630504911591</v>
       </c>
       <c r="X6" t="n">
-        <v>2.548721265003694</v>
+        <v>2.630504911591</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.541653464697446</v>
+        <v>2.630504911591</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.550326991384545</v>
+        <v>2.567995861753948</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.572044109603232</v>
+        <v>2.567995861753948</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.54505070860742</v>
+        <v>2.567995861753948</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.54505070860742</v>
+        <v>2.567995861753948</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.540514306163205</v>
+        <v>2.559259604673541</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.540626317179254</v>
+        <v>2.559259604673541</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.551487973028368</v>
+        <v>2.559259604673541</v>
       </c>
     </row>
     <row r="7">
@@ -1093,94 +1093,94 @@
         <v>2.483004412058821</v>
       </c>
       <c r="C7" t="n">
-        <v>2.478522953197663</v>
+        <v>2.513215745759458</v>
       </c>
       <c r="D7" t="n">
-        <v>2.496019832671682</v>
+        <v>2.535930668167372</v>
       </c>
       <c r="E7" t="n">
-        <v>2.467435178874776</v>
+        <v>2.533135576333869</v>
       </c>
       <c r="F7" t="n">
-        <v>2.425703819308921</v>
+        <v>2.544856653690259</v>
       </c>
       <c r="G7" t="n">
-        <v>2.421430124084142</v>
+        <v>2.583097084785649</v>
       </c>
       <c r="H7" t="n">
-        <v>2.387632131733711</v>
+        <v>2.583097084785649</v>
       </c>
       <c r="I7" t="n">
-        <v>2.422976832490746</v>
+        <v>2.529293761878415</v>
       </c>
       <c r="J7" t="n">
-        <v>2.379868437749975</v>
+        <v>2.577189400928154</v>
       </c>
       <c r="K7" t="n">
-        <v>2.438788188758707</v>
+        <v>2.531211282130664</v>
       </c>
       <c r="L7" t="n">
-        <v>2.468794376929171</v>
+        <v>2.531211282130664</v>
       </c>
       <c r="M7" t="n">
-        <v>2.456830301734628</v>
+        <v>2.531211282130664</v>
       </c>
       <c r="N7" t="n">
-        <v>2.454663983416587</v>
+        <v>2.39023638225883</v>
       </c>
       <c r="O7" t="n">
-        <v>2.38006690974088</v>
+        <v>2.396604861437442</v>
       </c>
       <c r="P7" t="n">
-        <v>2.388166822558834</v>
+        <v>2.401457600229839</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.418120757374248</v>
+        <v>2.486915720050573</v>
       </c>
       <c r="R7" t="n">
-        <v>2.421463169345099</v>
+        <v>2.485852236508268</v>
       </c>
       <c r="S7" t="n">
-        <v>2.416242468191581</v>
+        <v>2.476500202583165</v>
       </c>
       <c r="T7" t="n">
-        <v>2.477798200272332</v>
+        <v>2.458661608298103</v>
       </c>
       <c r="U7" t="n">
-        <v>2.464622878682326</v>
+        <v>2.479938058575619</v>
       </c>
       <c r="V7" t="n">
-        <v>2.484186802434907</v>
+        <v>2.501293991657448</v>
       </c>
       <c r="W7" t="n">
-        <v>2.459681003498805</v>
+        <v>2.543852976317259</v>
       </c>
       <c r="X7" t="n">
-        <v>2.402637364099648</v>
+        <v>2.543852976317259</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.422730600736708</v>
+        <v>2.543852976317259</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.402518612659053</v>
+        <v>2.469992050547902</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.419233656208476</v>
+        <v>2.469992050547902</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.426978411858929</v>
+        <v>2.469992050547902</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.426978411858929</v>
+        <v>2.469992050547902</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.421572482964979</v>
+        <v>2.467781114179647</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.455310967010719</v>
+        <v>2.467781114179647</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.441259020287045</v>
+        <v>2.467781114179647</v>
       </c>
     </row>
     <row r="8">
@@ -1191,94 +1191,94 @@
         <v>2.323463615403245</v>
       </c>
       <c r="C8" t="n">
-        <v>2.318797251525689</v>
+        <v>2.309625270216589</v>
       </c>
       <c r="D8" t="n">
-        <v>2.314431645680529</v>
+        <v>2.297195696906882</v>
       </c>
       <c r="E8" t="n">
-        <v>2.317264779321821</v>
+        <v>2.305569241401217</v>
       </c>
       <c r="F8" t="n">
-        <v>2.352830311802692</v>
+        <v>2.318611749315675</v>
       </c>
       <c r="G8" t="n">
-        <v>2.296785825453083</v>
+        <v>2.327131621504993</v>
       </c>
       <c r="H8" t="n">
-        <v>2.302289421693545</v>
+        <v>2.327131621504993</v>
       </c>
       <c r="I8" t="n">
-        <v>2.239809793904458</v>
+        <v>2.305515755898037</v>
       </c>
       <c r="J8" t="n">
-        <v>2.236036926165246</v>
+        <v>2.324713625887445</v>
       </c>
       <c r="K8" t="n">
-        <v>2.301098766928497</v>
+        <v>2.319943185643032</v>
       </c>
       <c r="L8" t="n">
-        <v>2.320819705784313</v>
+        <v>2.319943185643032</v>
       </c>
       <c r="M8" t="n">
-        <v>2.265305187045135</v>
+        <v>2.319943185643032</v>
       </c>
       <c r="N8" t="n">
-        <v>2.26092892480218</v>
+        <v>2.210653308424632</v>
       </c>
       <c r="O8" t="n">
-        <v>2.277734252458345</v>
+        <v>2.19269627421825</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28348063257133</v>
+        <v>2.2069932123388</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.257226166999778</v>
+        <v>2.300194765581568</v>
       </c>
       <c r="R8" t="n">
-        <v>2.300873229083976</v>
+        <v>2.299784756753589</v>
       </c>
       <c r="S8" t="n">
-        <v>2.222286252625859</v>
+        <v>2.280978558105287</v>
       </c>
       <c r="T8" t="n">
-        <v>2.234071730774321</v>
+        <v>2.270726009065833</v>
       </c>
       <c r="U8" t="n">
-        <v>2.225750455286485</v>
+        <v>2.28550111557878</v>
       </c>
       <c r="V8" t="n">
-        <v>2.267293066290585</v>
+        <v>2.295643303366217</v>
       </c>
       <c r="W8" t="n">
-        <v>2.257929111804</v>
+        <v>2.320061753590485</v>
       </c>
       <c r="X8" t="n">
-        <v>2.288880637376991</v>
+        <v>2.320061753590485</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.301416411634633</v>
+        <v>2.320061753590485</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.279514655864689</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.286446524198314</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.306343874908225</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.306343874908225</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.300435493689711</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.310017168786594</v>
+        <v>2.279728919768266</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.302893017771943</v>
+        <v>2.279728919768266</v>
       </c>
     </row>
     <row r="9">
@@ -1289,94 +1289,94 @@
         <v>2.153750712733552</v>
       </c>
       <c r="C9" t="n">
-        <v>2.221879891971233</v>
+        <v>2.172239984746352</v>
       </c>
       <c r="D9" t="n">
-        <v>2.079714268645925</v>
+        <v>2.039954598149424</v>
       </c>
       <c r="E9" t="n">
-        <v>2.108259490621675</v>
+        <v>2.038757574848879</v>
       </c>
       <c r="F9" t="n">
-        <v>2.140523248815003</v>
+        <v>2.05811823796172</v>
       </c>
       <c r="G9" t="n">
-        <v>2.171868518497413</v>
+        <v>2.033812128570716</v>
       </c>
       <c r="H9" t="n">
-        <v>2.187397542972979</v>
+        <v>2.033812128570716</v>
       </c>
       <c r="I9" t="n">
-        <v>2.079352650475915</v>
+        <v>2.033735753396973</v>
       </c>
       <c r="J9" t="n">
-        <v>2.119516462327599</v>
+        <v>2.034483768330702</v>
       </c>
       <c r="K9" t="n">
-        <v>2.161155122766183</v>
+        <v>2.075225561645918</v>
       </c>
       <c r="L9" t="n">
-        <v>2.175839510286927</v>
+        <v>2.075225561645918</v>
       </c>
       <c r="M9" t="n">
-        <v>2.092467267920117</v>
+        <v>2.075225561645918</v>
       </c>
       <c r="N9" t="n">
-        <v>2.155755012642629</v>
+        <v>2.111783927279435</v>
       </c>
       <c r="O9" t="n">
-        <v>2.159077907605404</v>
+        <v>2.082720488031452</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16875859466962</v>
+        <v>2.062264529754155</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.067054542407169</v>
+        <v>2.086073047993211</v>
       </c>
       <c r="R9" t="n">
-        <v>2.111650702762945</v>
+        <v>2.086771557167587</v>
       </c>
       <c r="S9" t="n">
-        <v>2.071318027653619</v>
+        <v>2.074105141788773</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06763952617369</v>
+        <v>2.146135470700267</v>
       </c>
       <c r="U9" t="n">
-        <v>2.197459029666333</v>
+        <v>2.078530417616142</v>
       </c>
       <c r="V9" t="n">
-        <v>2.065098029057694</v>
+        <v>2.04215123900865</v>
       </c>
       <c r="W9" t="n">
-        <v>2.119000422274907</v>
+        <v>2.072856284299345</v>
       </c>
       <c r="X9" t="n">
-        <v>2.162349470840327</v>
+        <v>2.072856284299345</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.163809136054557</v>
+        <v>2.072856284299345</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.137045691481539</v>
+        <v>2.04405248444351</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.13909686089268</v>
+        <v>2.05980377735939</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.184760615335637</v>
+        <v>2.05980377735939</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.136851526313664</v>
+        <v>2.05980377735939</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.129873495631498</v>
+        <v>2.05980377735939</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.13018767574664</v>
+        <v>2.05980377735939</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.130122854731167</v>
+        <v>2.05980377735939</v>
       </c>
     </row>
     <row r="10">
@@ -1387,94 +1387,94 @@
         <v>1.968129387214067</v>
       </c>
       <c r="C10" t="n">
-        <v>2.022260501175476</v>
+        <v>2.013215497198673</v>
       </c>
       <c r="D10" t="n">
-        <v>1.961245306626163</v>
+        <v>1.954281311887502</v>
       </c>
       <c r="E10" t="n">
-        <v>2.031105140418754</v>
+        <v>1.949951679052508</v>
       </c>
       <c r="F10" t="n">
-        <v>1.940203087009881</v>
+        <v>1.955315698315991</v>
       </c>
       <c r="G10" t="n">
-        <v>2.01966568888392</v>
+        <v>1.919034817463448</v>
       </c>
       <c r="H10" t="n">
-        <v>2.019522882146053</v>
+        <v>1.919034817463448</v>
       </c>
       <c r="I10" t="n">
-        <v>1.960063629733179</v>
+        <v>1.918746162218917</v>
       </c>
       <c r="J10" t="n">
-        <v>2.080590671003136</v>
+        <v>1.907493786190586</v>
       </c>
       <c r="K10" t="n">
-        <v>2.10109627302354</v>
+        <v>1.934436668353141</v>
       </c>
       <c r="L10" t="n">
-        <v>2.037015081752966</v>
+        <v>1.934436668353141</v>
       </c>
       <c r="M10" t="n">
-        <v>1.988240133800294</v>
+        <v>1.934436668353141</v>
       </c>
       <c r="N10" t="n">
-        <v>1.996036630333663</v>
+        <v>1.915675284140001</v>
       </c>
       <c r="O10" t="n">
-        <v>2.07239830136443</v>
+        <v>1.923868596181153</v>
       </c>
       <c r="P10" t="n">
-        <v>2.07503784886746</v>
+        <v>1.919208126282146</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.968269218072043</v>
+        <v>1.914545268415597</v>
       </c>
       <c r="R10" t="n">
-        <v>1.977972285426645</v>
+        <v>1.917002255745872</v>
       </c>
       <c r="S10" t="n">
-        <v>1.992591560805665</v>
+        <v>1.909277996037414</v>
       </c>
       <c r="T10" t="n">
-        <v>2.00986450686597</v>
+        <v>1.946502962771742</v>
       </c>
       <c r="U10" t="n">
-        <v>2.056259026125009</v>
+        <v>1.909467438479421</v>
       </c>
       <c r="V10" t="n">
-        <v>1.971638266142396</v>
+        <v>1.899778611306647</v>
       </c>
       <c r="W10" t="n">
-        <v>2.023509568516936</v>
+        <v>1.934504999976067</v>
       </c>
       <c r="X10" t="n">
-        <v>2.029321726146812</v>
+        <v>1.934504999976067</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.067676753321345</v>
+        <v>1.934504999976067</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.026951556646454</v>
+        <v>1.904432206956061</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.078072043850485</v>
+        <v>1.913024424712033</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.091515742331548</v>
+        <v>1.913024424712033</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.054241308042358</v>
+        <v>1.913024424712033</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.057218468208229</v>
+        <v>1.913024424712033</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.0574384366089</v>
+        <v>1.913024424712033</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.054706417883526</v>
+        <v>1.913024424712033</v>
       </c>
     </row>
     <row r="11">
@@ -1485,94 +1485,94 @@
         <v>1.87075341455124</v>
       </c>
       <c r="C11" t="n">
-        <v>1.866274187156982</v>
+        <v>1.926598973635281</v>
       </c>
       <c r="D11" t="n">
-        <v>1.886182106154129</v>
+        <v>1.95664347905362</v>
       </c>
       <c r="E11" t="n">
-        <v>1.856867322008578</v>
+        <v>1.95664347905362</v>
       </c>
       <c r="F11" t="n">
-        <v>1.873262232768232</v>
+        <v>1.962405591307825</v>
       </c>
       <c r="G11" t="n">
-        <v>1.868438010607697</v>
+        <v>1.932281852563047</v>
       </c>
       <c r="H11" t="n">
-        <v>1.860503104626517</v>
+        <v>1.925911455344598</v>
       </c>
       <c r="I11" t="n">
-        <v>1.853104226437413</v>
+        <v>1.925399758782695</v>
       </c>
       <c r="J11" t="n">
-        <v>1.966112510155461</v>
+        <v>1.895191654168523</v>
       </c>
       <c r="K11" t="n">
-        <v>1.985509924389865</v>
+        <v>1.881242785869421</v>
       </c>
       <c r="L11" t="n">
-        <v>1.900621524067007</v>
+        <v>1.881242785869421</v>
       </c>
       <c r="M11" t="n">
-        <v>1.918233772545699</v>
+        <v>1.881242785869421</v>
       </c>
       <c r="N11" t="n">
-        <v>1.86931412321936</v>
+        <v>1.843854467374278</v>
       </c>
       <c r="O11" t="n">
-        <v>1.969913894236752</v>
+        <v>1.867761250934957</v>
       </c>
       <c r="P11" t="n">
-        <v>1.980121482214261</v>
+        <v>1.890336537635318</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.868479454721461</v>
+        <v>1.852653367191468</v>
       </c>
       <c r="R11" t="n">
-        <v>1.871082811833618</v>
+        <v>1.857020371097536</v>
       </c>
       <c r="S11" t="n">
-        <v>1.937308145849269</v>
+        <v>1.844335958665334</v>
       </c>
       <c r="T11" t="n">
-        <v>1.948258531399469</v>
+        <v>1.82936548698378</v>
       </c>
       <c r="U11" t="n">
-        <v>1.945328545490703</v>
+        <v>1.843201023901254</v>
       </c>
       <c r="V11" t="n">
-        <v>1.931543108037888</v>
+        <v>1.858259339664009</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8847611242868</v>
+        <v>1.872095151779947</v>
       </c>
       <c r="X11" t="n">
-        <v>1.958569909474607</v>
+        <v>1.872095151779947</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.946450076771141</v>
+        <v>1.872095151779947</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.955548476613296</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.964775493073984</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.014559124242655</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.986316796937888</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.985770747770645</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.0113589547403</v>
+        <v>1.861711269413809</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.024040665675959</v>
+        <v>1.861711269413809</v>
       </c>
     </row>
     <row r="12">
@@ -1583,94 +1583,94 @@
         <v>1.80224189365533</v>
       </c>
       <c r="C12" t="n">
-        <v>1.811997120987134</v>
+        <v>1.885870089891896</v>
       </c>
       <c r="D12" t="n">
-        <v>1.802345382708787</v>
+        <v>1.930501675057383</v>
       </c>
       <c r="E12" t="n">
-        <v>1.767456351902627</v>
+        <v>1.926480963542704</v>
       </c>
       <c r="F12" t="n">
-        <v>1.759441094328656</v>
+        <v>1.921816244476434</v>
       </c>
       <c r="G12" t="n">
-        <v>1.785638401026477</v>
+        <v>1.913219544187589</v>
       </c>
       <c r="H12" t="n">
-        <v>1.78420675963002</v>
+        <v>1.906379599586513</v>
       </c>
       <c r="I12" t="n">
-        <v>1.793601101744286</v>
+        <v>1.90565484010562</v>
       </c>
       <c r="J12" t="n">
-        <v>1.827261000233201</v>
+        <v>1.876423102357599</v>
       </c>
       <c r="K12" t="n">
-        <v>1.867778665525796</v>
+        <v>1.854471959290363</v>
       </c>
       <c r="L12" t="n">
-        <v>1.867595495983875</v>
+        <v>1.854471959290363</v>
       </c>
       <c r="M12" t="n">
-        <v>1.9047466802377</v>
+        <v>1.854471959290363</v>
       </c>
       <c r="N12" t="n">
-        <v>1.848423394249562</v>
+        <v>1.806469750478628</v>
       </c>
       <c r="O12" t="n">
-        <v>1.812996141172838</v>
+        <v>1.77651819662328</v>
       </c>
       <c r="P12" t="n">
-        <v>1.823664990961375</v>
+        <v>1.826584066139236</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.821038352234364</v>
+        <v>1.828891973223669</v>
       </c>
       <c r="R12" t="n">
-        <v>1.827154379290562</v>
+        <v>1.834793051350116</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91081742492076</v>
+        <v>1.811504164331706</v>
       </c>
       <c r="T12" t="n">
-        <v>1.928467801072889</v>
+        <v>1.784738033744661</v>
       </c>
       <c r="U12" t="n">
-        <v>1.908378127256368</v>
+        <v>1.793564440071275</v>
       </c>
       <c r="V12" t="n">
-        <v>1.916388819250414</v>
+        <v>1.809596432838737</v>
       </c>
       <c r="W12" t="n">
-        <v>1.826035203740997</v>
+        <v>1.825329761921881</v>
       </c>
       <c r="X12" t="n">
-        <v>1.841386990423488</v>
+        <v>1.825329761921881</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.830254467750573</v>
+        <v>1.825329761921881</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.871087932575001</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.86055482177531</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.893768571558965</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.848833227297314</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.860192561014433</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.914398173661577</v>
+        <v>1.813375217837304</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.939687202581911</v>
+        <v>1.813375217837304</v>
       </c>
     </row>
     <row r="13">
@@ -1681,94 +1681,94 @@
         <v>1.731354509432629</v>
       </c>
       <c r="C13" t="n">
-        <v>1.806393861906897</v>
+        <v>1.799035717278389</v>
       </c>
       <c r="D13" t="n">
-        <v>1.739999512475543</v>
+        <v>1.850874246997421</v>
       </c>
       <c r="E13" t="n">
-        <v>1.73494732286104</v>
+        <v>1.849188861621765</v>
       </c>
       <c r="F13" t="n">
-        <v>1.731850784242048</v>
+        <v>1.834766054793638</v>
       </c>
       <c r="G13" t="n">
-        <v>1.725957651404257</v>
+        <v>1.843106853546688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.746471128124048</v>
+        <v>1.843106853546688</v>
       </c>
       <c r="I13" t="n">
-        <v>1.765175743742674</v>
+        <v>1.835858719554027</v>
       </c>
       <c r="J13" t="n">
-        <v>1.778127343335407</v>
+        <v>1.826424960395953</v>
       </c>
       <c r="K13" t="n">
-        <v>1.753931090330052</v>
+        <v>1.801606433992666</v>
       </c>
       <c r="L13" t="n">
-        <v>1.856659096397158</v>
+        <v>1.801606433992666</v>
       </c>
       <c r="M13" t="n">
-        <v>1.910888263291983</v>
+        <v>1.801606433992666</v>
       </c>
       <c r="N13" t="n">
-        <v>1.838284555714837</v>
+        <v>1.74801741884701</v>
       </c>
       <c r="O13" t="n">
-        <v>1.719915344266793</v>
+        <v>1.7051949343313</v>
       </c>
       <c r="P13" t="n">
-        <v>1.722354606142584</v>
+        <v>1.757951910320678</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.790317442167745</v>
+        <v>1.79360102597206</v>
       </c>
       <c r="R13" t="n">
-        <v>1.798250351279622</v>
+        <v>1.800533405670203</v>
       </c>
       <c r="S13" t="n">
-        <v>1.863158031613177</v>
+        <v>1.777550960727086</v>
       </c>
       <c r="T13" t="n">
-        <v>1.904778528622277</v>
+        <v>1.736838801245632</v>
       </c>
       <c r="U13" t="n">
-        <v>1.893153858044715</v>
+        <v>1.741686146428024</v>
       </c>
       <c r="V13" t="n">
-        <v>1.892974455466738</v>
+        <v>1.763147916452506</v>
       </c>
       <c r="W13" t="n">
-        <v>1.810008109353748</v>
+        <v>1.779384914188023</v>
       </c>
       <c r="X13" t="n">
-        <v>1.767634165440192</v>
+        <v>1.779384914188023</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.781847665057847</v>
+        <v>1.779384914188023</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.824358034423958</v>
+        <v>1.766114663445954</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.821806481185173</v>
+        <v>1.766114663445954</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.796815004155429</v>
+        <v>1.766114663445954</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.772719077512561</v>
+        <v>1.766114663445954</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.793625804712127</v>
+        <v>1.766114663445954</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.818806961515775</v>
+        <v>1.754684551003418</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.835106732778349</v>
+        <v>1.754684551003418</v>
       </c>
     </row>
     <row r="14">
@@ -1779,94 +1779,94 @@
         <v>1.658626898203541</v>
       </c>
       <c r="C14" t="n">
-        <v>1.745570647982502</v>
+        <v>1.695286005476028</v>
       </c>
       <c r="D14" t="n">
-        <v>1.720366476272608</v>
+        <v>1.735440741766319</v>
       </c>
       <c r="E14" t="n">
-        <v>1.73326737361874</v>
+        <v>1.741095016282569</v>
       </c>
       <c r="F14" t="n">
-        <v>1.732792835251416</v>
+        <v>1.754634188050909</v>
       </c>
       <c r="G14" t="n">
-        <v>1.697367514832935</v>
+        <v>1.76204959252711</v>
       </c>
       <c r="H14" t="n">
-        <v>1.727456741744053</v>
+        <v>1.76204959252711</v>
       </c>
       <c r="I14" t="n">
-        <v>1.751473347868981</v>
+        <v>1.750956479790319</v>
       </c>
       <c r="J14" t="n">
-        <v>1.746070363191342</v>
+        <v>1.752617695891669</v>
       </c>
       <c r="K14" t="n">
-        <v>1.70501511222598</v>
+        <v>1.719301720280425</v>
       </c>
       <c r="L14" t="n">
-        <v>1.842095504644211</v>
+        <v>1.719301720280425</v>
       </c>
       <c r="M14" t="n">
-        <v>1.836000743641634</v>
+        <v>1.719301720280425</v>
       </c>
       <c r="N14" t="n">
-        <v>1.810457146937459</v>
+        <v>1.677102097059922</v>
       </c>
       <c r="O14" t="n">
-        <v>1.715150911623874</v>
+        <v>1.657580871751197</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71361404498293</v>
+        <v>1.658607876535424</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.776144614532875</v>
+        <v>1.717349602908516</v>
       </c>
       <c r="R14" t="n">
-        <v>1.786093529466602</v>
+        <v>1.724785016009428</v>
       </c>
       <c r="S14" t="n">
-        <v>1.791666041634182</v>
+        <v>1.722469183581943</v>
       </c>
       <c r="T14" t="n">
-        <v>1.842283938158045</v>
+        <v>1.682761777195057</v>
       </c>
       <c r="U14" t="n">
-        <v>1.821330688836538</v>
+        <v>1.67940346725286</v>
       </c>
       <c r="V14" t="n">
-        <v>1.832756660785592</v>
+        <v>1.70691482540425</v>
       </c>
       <c r="W14" t="n">
-        <v>1.784727876038374</v>
+        <v>1.716638200424321</v>
       </c>
       <c r="X14" t="n">
-        <v>1.733082897939434</v>
+        <v>1.716638200424321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.765272664818947</v>
+        <v>1.716638200424321</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.808657452733382</v>
+        <v>1.710458498347492</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.83202260897114</v>
+        <v>1.710458498347492</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.773226552053322</v>
+        <v>1.710458498347492</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.773226552053322</v>
+        <v>1.710458498347492</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.774112874792438</v>
+        <v>1.710458498347492</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.766947639632175</v>
+        <v>1.700497525886584</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.771260105632022</v>
+        <v>1.700497525886584</v>
       </c>
     </row>
     <row r="15">
@@ -1877,94 +1877,94 @@
         <v>1.634763338380515</v>
       </c>
       <c r="C15" t="n">
-        <v>1.730568627181105</v>
+        <v>1.62354339275955</v>
       </c>
       <c r="D15" t="n">
-        <v>1.725753528258149</v>
+        <v>1.661662880095376</v>
       </c>
       <c r="E15" t="n">
-        <v>1.709781642829765</v>
+        <v>1.658993614775807</v>
       </c>
       <c r="F15" t="n">
-        <v>1.716242028551413</v>
+        <v>1.679072877799685</v>
       </c>
       <c r="G15" t="n">
-        <v>1.704246406003535</v>
+        <v>1.675674576395946</v>
       </c>
       <c r="H15" t="n">
-        <v>1.724605686483501</v>
+        <v>1.675674576395946</v>
       </c>
       <c r="I15" t="n">
-        <v>1.766075946527284</v>
+        <v>1.674758769730756</v>
       </c>
       <c r="J15" t="n">
-        <v>1.690585526336196</v>
+        <v>1.675688642324147</v>
       </c>
       <c r="K15" t="n">
-        <v>1.669993846088121</v>
+        <v>1.635617025688336</v>
       </c>
       <c r="L15" t="n">
-        <v>1.804622905517932</v>
+        <v>1.643205210944455</v>
       </c>
       <c r="M15" t="n">
-        <v>1.812071638564967</v>
+        <v>1.643205210944455</v>
       </c>
       <c r="N15" t="n">
-        <v>1.77390140247851</v>
+        <v>1.589654066978156</v>
       </c>
       <c r="O15" t="n">
-        <v>1.710930159115617</v>
+        <v>1.579744004285821</v>
       </c>
       <c r="P15" t="n">
-        <v>1.712856315210547</v>
+        <v>1.600737253952477</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.787503959173476</v>
+        <v>1.63860017279425</v>
       </c>
       <c r="R15" t="n">
-        <v>1.774908127916578</v>
+        <v>1.645604040366092</v>
       </c>
       <c r="S15" t="n">
-        <v>1.771190442669727</v>
+        <v>1.635827315409229</v>
       </c>
       <c r="T15" t="n">
-        <v>1.789854505478195</v>
+        <v>1.606889753447115</v>
       </c>
       <c r="U15" t="n">
-        <v>1.77838562811368</v>
+        <v>1.609374281177001</v>
       </c>
       <c r="V15" t="n">
-        <v>1.778711883325223</v>
+        <v>1.628856395978415</v>
       </c>
       <c r="W15" t="n">
-        <v>1.785417878218986</v>
+        <v>1.640223527879081</v>
       </c>
       <c r="X15" t="n">
-        <v>1.716719306522358</v>
+        <v>1.640223527879081</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.757032152351202</v>
+        <v>1.640223527879081</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.78721881354099</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.81930438117455</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.765163258978373</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.756928556624068</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.757431657081495</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.754450505766643</v>
+        <v>1.632357564360617</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.751074947586623</v>
+        <v>1.632357564360617</v>
       </c>
     </row>
     <row r="16">
@@ -1975,94 +1975,94 @@
         <v>1.679847148663105</v>
       </c>
       <c r="C16" t="n">
-        <v>1.746027140112986</v>
+        <v>1.589666992963099</v>
       </c>
       <c r="D16" t="n">
-        <v>1.702589060340917</v>
+        <v>1.629079691105236</v>
       </c>
       <c r="E16" t="n">
-        <v>1.678474258687109</v>
+        <v>1.617897609296067</v>
       </c>
       <c r="F16" t="n">
-        <v>1.68935665871788</v>
+        <v>1.634333649893789</v>
       </c>
       <c r="G16" t="n">
-        <v>1.720060496227049</v>
+        <v>1.626336412349369</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72842670506717</v>
+        <v>1.626336412349369</v>
       </c>
       <c r="I16" t="n">
-        <v>1.731877051997601</v>
+        <v>1.625542649956939</v>
       </c>
       <c r="J16" t="n">
-        <v>1.687292387231942</v>
+        <v>1.62538480375172</v>
       </c>
       <c r="K16" t="n">
-        <v>1.655979641202068</v>
+        <v>1.599405884457128</v>
       </c>
       <c r="L16" t="n">
-        <v>1.76292070440273</v>
+        <v>1.625522343010932</v>
       </c>
       <c r="M16" t="n">
-        <v>1.810806516916373</v>
+        <v>1.625522343010932</v>
       </c>
       <c r="N16" t="n">
-        <v>1.782429056870314</v>
+        <v>1.592826590253779</v>
       </c>
       <c r="O16" t="n">
-        <v>1.675670849022322</v>
+        <v>1.586935322096706</v>
       </c>
       <c r="P16" t="n">
-        <v>1.678416109190134</v>
+        <v>1.593918523959172</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.768732903815851</v>
+        <v>1.605441201114538</v>
       </c>
       <c r="R16" t="n">
-        <v>1.749960759829302</v>
+        <v>1.611203977518908</v>
       </c>
       <c r="S16" t="n">
-        <v>1.800834086677056</v>
+        <v>1.602658154504715</v>
       </c>
       <c r="T16" t="n">
-        <v>1.797035255436667</v>
+        <v>1.611154449716727</v>
       </c>
       <c r="U16" t="n">
-        <v>1.801535388380952</v>
+        <v>1.608229656331251</v>
       </c>
       <c r="V16" t="n">
-        <v>1.791340608168783</v>
+        <v>1.61995889591384</v>
       </c>
       <c r="W16" t="n">
-        <v>1.796160397606077</v>
+        <v>1.595287413316191</v>
       </c>
       <c r="X16" t="n">
-        <v>1.717769713621357</v>
+        <v>1.595287413316191</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.733908959454626</v>
+        <v>1.595287413316191</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.772481310888262</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.789463693794896</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.742551849947534</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.72957950796225</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.741143883367134</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.741676237437233</v>
+        <v>1.607127655720033</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.729143697669619</v>
+        <v>1.600019917056348</v>
       </c>
     </row>
     <row r="17">
@@ -2073,94 +2073,94 @@
         <v>1.780974344804885</v>
       </c>
       <c r="C17" t="n">
-        <v>1.791741885436429</v>
+        <v>1.60777061400424</v>
       </c>
       <c r="D17" t="n">
-        <v>1.689231885976315</v>
+        <v>1.642018207894345</v>
       </c>
       <c r="E17" t="n">
-        <v>1.664058854335548</v>
+        <v>1.626459939751929</v>
       </c>
       <c r="F17" t="n">
-        <v>1.656803889477451</v>
+        <v>1.625358309460915</v>
       </c>
       <c r="G17" t="n">
-        <v>1.716252876537105</v>
+        <v>1.629048707422134</v>
       </c>
       <c r="H17" t="n">
-        <v>1.725458606079824</v>
+        <v>1.629048707422134</v>
       </c>
       <c r="I17" t="n">
-        <v>1.710578161119804</v>
+        <v>1.628569988894765</v>
       </c>
       <c r="J17" t="n">
-        <v>1.714226166205779</v>
+        <v>1.626676593888604</v>
       </c>
       <c r="K17" t="n">
-        <v>1.665421830840202</v>
+        <v>1.630112591334387</v>
       </c>
       <c r="L17" t="n">
-        <v>1.748811616416953</v>
+        <v>1.656164479510368</v>
       </c>
       <c r="M17" t="n">
-        <v>1.819163339603692</v>
+        <v>1.656164479510368</v>
       </c>
       <c r="N17" t="n">
-        <v>1.793884395528387</v>
+        <v>1.604188233049125</v>
       </c>
       <c r="O17" t="n">
-        <v>1.693801456124883</v>
+        <v>1.577914170515233</v>
       </c>
       <c r="P17" t="n">
-        <v>1.688854935167373</v>
+        <v>1.575564546938908</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.743829960577575</v>
+        <v>1.651248109507397</v>
       </c>
       <c r="R17" t="n">
-        <v>1.744473610945929</v>
+        <v>1.654844907673535</v>
       </c>
       <c r="S17" t="n">
-        <v>1.798541008957432</v>
+        <v>1.644228369503133</v>
       </c>
       <c r="T17" t="n">
-        <v>1.840954726816915</v>
+        <v>1.62917064222155</v>
       </c>
       <c r="U17" t="n">
-        <v>1.831376326465732</v>
+        <v>1.631838151464572</v>
       </c>
       <c r="V17" t="n">
-        <v>1.850805530718847</v>
+        <v>1.648033481213311</v>
       </c>
       <c r="W17" t="n">
-        <v>1.809863166887104</v>
+        <v>1.624051705620015</v>
       </c>
       <c r="X17" t="n">
-        <v>1.71835855596587</v>
+        <v>1.624051705620015</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.715145381743223</v>
+        <v>1.624051705620015</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.764987445493023</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.77142012063692</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.717393486334692</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.732343751904171</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.738310226156185</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.742981281062816</v>
+        <v>1.627794792879464</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.73079196632114</v>
+        <v>1.613582832538815</v>
       </c>
     </row>
     <row r="18">
@@ -2171,94 +2171,94 @@
         <v>1.88155697237611</v>
       </c>
       <c r="C18" t="n">
-        <v>1.883311693696943</v>
+        <v>1.6640027040717</v>
       </c>
       <c r="D18" t="n">
-        <v>1.905014717146718</v>
+        <v>1.730436918889666</v>
       </c>
       <c r="E18" t="n">
-        <v>1.834249490829516</v>
+        <v>1.724155126985168</v>
       </c>
       <c r="F18" t="n">
-        <v>1.853187263759296</v>
+        <v>1.728456858914381</v>
       </c>
       <c r="G18" t="n">
-        <v>1.752971854638125</v>
+        <v>1.707928318529115</v>
       </c>
       <c r="H18" t="n">
-        <v>1.766945749981362</v>
+        <v>1.707928318529115</v>
       </c>
       <c r="I18" t="n">
-        <v>1.816401571482086</v>
+        <v>1.705327513095025</v>
       </c>
       <c r="J18" t="n">
-        <v>1.809016699851163</v>
+        <v>1.701738281672867</v>
       </c>
       <c r="K18" t="n">
-        <v>1.797336817195899</v>
+        <v>1.690140035079879</v>
       </c>
       <c r="L18" t="n">
-        <v>1.814352850077406</v>
+        <v>1.695253120976112</v>
       </c>
       <c r="M18" t="n">
-        <v>1.876351989984501</v>
+        <v>1.695253120976112</v>
       </c>
       <c r="N18" t="n">
-        <v>1.859371307041375</v>
+        <v>1.703417015776787</v>
       </c>
       <c r="O18" t="n">
-        <v>1.828670092963229</v>
+        <v>1.657488474394168</v>
       </c>
       <c r="P18" t="n">
-        <v>1.815829956714393</v>
+        <v>1.645740632169328</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79695770665371</v>
+        <v>1.716083985875091</v>
       </c>
       <c r="R18" t="n">
-        <v>1.79734978121061</v>
+        <v>1.718231934263335</v>
       </c>
       <c r="S18" t="n">
-        <v>1.845907388228993</v>
+        <v>1.699168518165533</v>
       </c>
       <c r="T18" t="n">
-        <v>1.866944366006572</v>
+        <v>1.669630465930926</v>
       </c>
       <c r="U18" t="n">
-        <v>1.846639213740845</v>
+        <v>1.676629045547392</v>
       </c>
       <c r="V18" t="n">
-        <v>1.878833556078073</v>
+        <v>1.676480647173186</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8431407347441</v>
+        <v>1.680548528298487</v>
       </c>
       <c r="X18" t="n">
-        <v>1.770285500420927</v>
+        <v>1.680548528298487</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.754251843739765</v>
+        <v>1.680548528298487</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.791404081076258</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.820659288958682</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.778585848855906</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.806947136594919</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.799254441192198</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.793204087357145</v>
+        <v>1.670348261742442</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.793764659527139</v>
+        <v>1.656557982529797</v>
       </c>
     </row>
     <row r="19">
@@ -2269,94 +2269,94 @@
         <v>1.960209294253156</v>
       </c>
       <c r="C19" t="n">
-        <v>1.972965892172095</v>
+        <v>1.933997547730037</v>
       </c>
       <c r="D19" t="n">
-        <v>1.98776311355784</v>
+        <v>1.807581311410562</v>
       </c>
       <c r="E19" t="n">
-        <v>2.048514110350873</v>
+        <v>1.807581311410562</v>
       </c>
       <c r="F19" t="n">
-        <v>1.953294518778697</v>
+        <v>1.794527504921249</v>
       </c>
       <c r="G19" t="n">
-        <v>1.917058402667035</v>
+        <v>1.788091222692272</v>
       </c>
       <c r="H19" t="n">
-        <v>1.923681704059485</v>
+        <v>1.788091222692272</v>
       </c>
       <c r="I19" t="n">
-        <v>1.921118254889724</v>
+        <v>1.777470544973606</v>
       </c>
       <c r="J19" t="n">
-        <v>1.948850126480571</v>
+        <v>1.783600139089908</v>
       </c>
       <c r="K19" t="n">
-        <v>1.942474537288929</v>
+        <v>1.858748355479254</v>
       </c>
       <c r="L19" t="n">
-        <v>1.871384890463893</v>
+        <v>1.858748355479254</v>
       </c>
       <c r="M19" t="n">
-        <v>1.928660383072974</v>
+        <v>1.858748355479254</v>
       </c>
       <c r="N19" t="n">
-        <v>1.915198679682565</v>
+        <v>1.82324135459927</v>
       </c>
       <c r="O19" t="n">
-        <v>1.940989272828117</v>
+        <v>1.759561711579844</v>
       </c>
       <c r="P19" t="n">
-        <v>1.938594172475961</v>
+        <v>1.771039862880123</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.901880025094587</v>
+        <v>1.837202727798632</v>
       </c>
       <c r="R19" t="n">
-        <v>1.901459573582592</v>
+        <v>1.835641829008454</v>
       </c>
       <c r="S19" t="n">
-        <v>1.949875723689007</v>
+        <v>1.852705350345382</v>
       </c>
       <c r="T19" t="n">
-        <v>1.876460311672865</v>
+        <v>1.920430986238115</v>
       </c>
       <c r="U19" t="n">
-        <v>1.878337416128264</v>
+        <v>1.873043546149676</v>
       </c>
       <c r="V19" t="n">
-        <v>1.879582885892994</v>
+        <v>1.830752605909457</v>
       </c>
       <c r="W19" t="n">
-        <v>1.884436773737747</v>
+        <v>1.780350843282457</v>
       </c>
       <c r="X19" t="n">
-        <v>1.865291842230439</v>
+        <v>1.780350843282457</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.842780545638022</v>
+        <v>1.780350843282457</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.8795644866788</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.904749536714349</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.900135255377476</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.885314389062086</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.870954629235191</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.859535154809724</v>
+        <v>1.828034712956205</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.868217333313954</v>
+        <v>1.821827308143076</v>
       </c>
     </row>
     <row r="20">
@@ -2367,94 +2367,94 @@
         <v>2.032297197991552</v>
       </c>
       <c r="C20" t="n">
-        <v>2.10460857941974</v>
+        <v>1.990729258980251</v>
       </c>
       <c r="D20" t="n">
-        <v>2.034935111196687</v>
+        <v>2.027551829539852</v>
       </c>
       <c r="E20" t="n">
-        <v>2.070316617061901</v>
+        <v>2.027551829539852</v>
       </c>
       <c r="F20" t="n">
-        <v>2.032372547944321</v>
+        <v>2.039054446538951</v>
       </c>
       <c r="G20" t="n">
-        <v>2.024163758557095</v>
+        <v>1.999532143673233</v>
       </c>
       <c r="H20" t="n">
-        <v>2.00437095094587</v>
+        <v>1.999532143673233</v>
       </c>
       <c r="I20" t="n">
-        <v>1.975121019047336</v>
+        <v>1.983317809370036</v>
       </c>
       <c r="J20" t="n">
-        <v>2.0069306499879</v>
+        <v>2.006580948976745</v>
       </c>
       <c r="K20" t="n">
-        <v>2.10665823753927</v>
+        <v>1.984326612845301</v>
       </c>
       <c r="L20" t="n">
-        <v>1.911121358017266</v>
+        <v>1.984326612845301</v>
       </c>
       <c r="M20" t="n">
-        <v>1.977389953034227</v>
+        <v>1.984326612845301</v>
       </c>
       <c r="N20" t="n">
-        <v>1.962901817539626</v>
+        <v>1.885923271498671</v>
       </c>
       <c r="O20" t="n">
-        <v>1.972013353948575</v>
+        <v>1.934736551953592</v>
       </c>
       <c r="P20" t="n">
-        <v>1.970255848042122</v>
+        <v>1.9200686572396</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98301364753658</v>
+        <v>1.967650441008685</v>
       </c>
       <c r="R20" t="n">
-        <v>1.977214948535561</v>
+        <v>1.964945154747892</v>
       </c>
       <c r="S20" t="n">
-        <v>1.989818750761499</v>
+        <v>1.972686904994309</v>
       </c>
       <c r="T20" t="n">
-        <v>1.918195286934645</v>
+        <v>1.970303642445733</v>
       </c>
       <c r="U20" t="n">
-        <v>1.926340713065495</v>
+        <v>1.957881012270474</v>
       </c>
       <c r="V20" t="n">
-        <v>1.93690380267215</v>
+        <v>1.98711742415581</v>
       </c>
       <c r="W20" t="n">
-        <v>1.918512442366863</v>
+        <v>1.970006647062751</v>
       </c>
       <c r="X20" t="n">
-        <v>1.930829501751909</v>
+        <v>1.970006647062751</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.941626184909921</v>
+        <v>1.970006647062751</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.961580065247277</v>
+        <v>1.982115142029375</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.961912723238714</v>
+        <v>1.97171023063732</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.017371424757923</v>
+        <v>1.97171023063732</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.971588966295502</v>
+        <v>1.97171023063732</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.941191368141473</v>
+        <v>1.97171023063732</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.937006315238517</v>
+        <v>1.97171023063732</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.935349313384862</v>
+        <v>1.97171023063732</v>
       </c>
     </row>
     <row r="21">
@@ -2465,94 +2465,94 @@
         <v>2.059082723329003</v>
       </c>
       <c r="C21" t="n">
-        <v>2.198678563043042</v>
+        <v>1.998914592486537</v>
       </c>
       <c r="D21" t="n">
-        <v>2.034076177061404</v>
+        <v>2.061071151869997</v>
       </c>
       <c r="E21" t="n">
-        <v>2.03709567874113</v>
+        <v>2.061071151869997</v>
       </c>
       <c r="F21" t="n">
-        <v>2.060591259866907</v>
+        <v>2.063045407674159</v>
       </c>
       <c r="G21" t="n">
-        <v>2.045529995605216</v>
+        <v>2.061943301680635</v>
       </c>
       <c r="H21" t="n">
-        <v>1.980566581279162</v>
+        <v>2.061943301680635</v>
       </c>
       <c r="I21" t="n">
-        <v>2.007010131316833</v>
+        <v>2.048775377441741</v>
       </c>
       <c r="J21" t="n">
-        <v>1.985946495929485</v>
+        <v>2.043314442979546</v>
       </c>
       <c r="K21" t="n">
-        <v>2.094673941176162</v>
+        <v>2.002146505975536</v>
       </c>
       <c r="L21" t="n">
-        <v>1.968187863362369</v>
+        <v>2.002146505975536</v>
       </c>
       <c r="M21" t="n">
-        <v>2.05403940519666</v>
+        <v>2.002146505975536</v>
       </c>
       <c r="N21" t="n">
-        <v>2.052167642629397</v>
+        <v>1.931017742031258</v>
       </c>
       <c r="O21" t="n">
-        <v>2.033914295077352</v>
+        <v>1.973346394809365</v>
       </c>
       <c r="P21" t="n">
-        <v>2.027501218809788</v>
+        <v>1.996193203169742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.031992144099037</v>
+        <v>2.029571222319659</v>
       </c>
       <c r="R21" t="n">
-        <v>2.021927879696772</v>
+        <v>2.027517813590419</v>
       </c>
       <c r="S21" t="n">
-        <v>2.049710266032704</v>
+        <v>2.039229187587821</v>
       </c>
       <c r="T21" t="n">
-        <v>2.022041674429247</v>
+        <v>2.029828104509312</v>
       </c>
       <c r="U21" t="n">
-        <v>2.048333709183753</v>
+        <v>2.039540621587955</v>
       </c>
       <c r="V21" t="n">
-        <v>2.02938170428359</v>
+        <v>2.031477470192693</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98838705694203</v>
+        <v>2.072221348919995</v>
       </c>
       <c r="X21" t="n">
-        <v>2.010540643466832</v>
+        <v>2.072221348919995</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.015831672762503</v>
+        <v>2.072221348919995</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.994542350853563</v>
+        <v>2.027578667580857</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.003989467521715</v>
+        <v>2.010076657755235</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.058662693647721</v>
+        <v>2.010076657755235</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.027343045286059</v>
+        <v>2.010076657755235</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.00854482486659</v>
+        <v>2.010076657755235</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.007009712861671</v>
+        <v>2.010076657755235</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.005730678762485</v>
+        <v>2.010076657755235</v>
       </c>
     </row>
     <row r="22">
@@ -2563,94 +2563,94 @@
         <v>2.105439698876353</v>
       </c>
       <c r="C22" t="n">
-        <v>2.225974231741438</v>
+        <v>2.015837113378219</v>
       </c>
       <c r="D22" t="n">
-        <v>2.097285750051063</v>
+        <v>2.085101154158501</v>
       </c>
       <c r="E22" t="n">
-        <v>2.123842427548256</v>
+        <v>2.085101154158501</v>
       </c>
       <c r="F22" t="n">
-        <v>2.067964026254136</v>
+        <v>2.082998664344145</v>
       </c>
       <c r="G22" t="n">
-        <v>2.092891125422259</v>
+        <v>2.079636654998504</v>
       </c>
       <c r="H22" t="n">
-        <v>2.063036696797321</v>
+        <v>2.079636654998504</v>
       </c>
       <c r="I22" t="n">
-        <v>2.065912898105393</v>
+        <v>2.075191010109688</v>
       </c>
       <c r="J22" t="n">
-        <v>2.064129284609927</v>
+        <v>2.070403743226029</v>
       </c>
       <c r="K22" t="n">
-        <v>2.135237308379952</v>
+        <v>2.019494565150857</v>
       </c>
       <c r="L22" t="n">
-        <v>2.11988678351718</v>
+        <v>2.019494565150857</v>
       </c>
       <c r="M22" t="n">
-        <v>2.130454427098355</v>
+        <v>2.019494565150857</v>
       </c>
       <c r="N22" t="n">
-        <v>2.118418993307552</v>
+        <v>1.974930291638014</v>
       </c>
       <c r="O22" t="n">
-        <v>2.121316500656774</v>
+        <v>2.037007207607283</v>
       </c>
       <c r="P22" t="n">
-        <v>2.116077111850487</v>
+        <v>2.063280285814014</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.096452063531238</v>
+        <v>2.073745394989849</v>
       </c>
       <c r="R22" t="n">
-        <v>2.114807538633724</v>
+        <v>2.073940433156376</v>
       </c>
       <c r="S22" t="n">
-        <v>2.099283411987753</v>
+        <v>2.073718872347104</v>
       </c>
       <c r="T22" t="n">
-        <v>2.10988393796739</v>
+        <v>2.076601202337471</v>
       </c>
       <c r="U22" t="n">
-        <v>2.118248285196902</v>
+        <v>2.074574472077117</v>
       </c>
       <c r="V22" t="n">
-        <v>2.112952659662267</v>
+        <v>2.079901531627652</v>
       </c>
       <c r="W22" t="n">
-        <v>2.062583053311701</v>
+        <v>2.130548168588286</v>
       </c>
       <c r="X22" t="n">
-        <v>2.070744580287553</v>
+        <v>2.130548168588286</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.071847855370785</v>
+        <v>2.130548168588286</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.014135091060161</v>
+        <v>2.087338522854861</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.003812572314607</v>
+        <v>2.069816403288157</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.077690990658387</v>
+        <v>2.069816403288157</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.077690990658387</v>
+        <v>2.069816403288157</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.073901056975067</v>
+        <v>2.069816403288157</v>
       </c>
       <c r="AE22" t="n">
-        <v>2.070729025368657</v>
+        <v>2.069816403288157</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.077322501106194</v>
+        <v>2.069816403288157</v>
       </c>
     </row>
     <row r="23">
@@ -2661,94 +2661,94 @@
         <v>2.12853978056896</v>
       </c>
       <c r="C23" t="n">
-        <v>2.268752465699122</v>
+        <v>2.092189761687067</v>
       </c>
       <c r="D23" t="n">
-        <v>2.140845259265558</v>
+        <v>2.17604953107861</v>
       </c>
       <c r="E23" t="n">
-        <v>2.164448590876158</v>
+        <v>2.17604953107861</v>
       </c>
       <c r="F23" t="n">
-        <v>2.161092342634416</v>
+        <v>2.168459634274472</v>
       </c>
       <c r="G23" t="n">
-        <v>2.202306669747589</v>
+        <v>2.170187493118064</v>
       </c>
       <c r="H23" t="n">
-        <v>2.216530255384284</v>
+        <v>2.170187493118064</v>
       </c>
       <c r="I23" t="n">
-        <v>2.172384937603697</v>
+        <v>2.170136294874737</v>
       </c>
       <c r="J23" t="n">
-        <v>2.19883951648785</v>
+        <v>2.161848134905042</v>
       </c>
       <c r="K23" t="n">
-        <v>2.157939185842447</v>
+        <v>2.094706553752884</v>
       </c>
       <c r="L23" t="n">
-        <v>2.160032128107822</v>
+        <v>2.094706553752884</v>
       </c>
       <c r="M23" t="n">
-        <v>2.15399372948929</v>
+        <v>2.077394981772778</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1482004789068</v>
+        <v>2.059063381360046</v>
       </c>
       <c r="O23" t="n">
-        <v>2.168901296228643</v>
+        <v>2.105381788217045</v>
       </c>
       <c r="P23" t="n">
-        <v>2.167930537642595</v>
+        <v>2.151724407838122</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.162724153330787</v>
+        <v>2.147770215181015</v>
       </c>
       <c r="R23" t="n">
-        <v>2.158508441089677</v>
+        <v>2.151220712261379</v>
       </c>
       <c r="S23" t="n">
-        <v>2.140937220991199</v>
+        <v>2.138150890159213</v>
       </c>
       <c r="T23" t="n">
-        <v>2.138694252421193</v>
+        <v>2.131084909882075</v>
       </c>
       <c r="U23" t="n">
-        <v>2.13087898917022</v>
+        <v>2.120719567327286</v>
       </c>
       <c r="V23" t="n">
-        <v>2.144377664548462</v>
+        <v>2.139010931516126</v>
       </c>
       <c r="W23" t="n">
-        <v>2.071143166447881</v>
+        <v>2.184030518033043</v>
       </c>
       <c r="X23" t="n">
-        <v>2.093272411036879</v>
+        <v>2.184030518033043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.095050809288511</v>
+        <v>2.184030518033043</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.038566261777907</v>
+        <v>2.142715322364016</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.025318017697002</v>
+        <v>2.138961601339341</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.06982177996909</v>
+        <v>2.138961601339341</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.06982177996909</v>
+        <v>2.138961601339341</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.059942509379856</v>
+        <v>2.138961601339341</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.071276586039206</v>
+        <v>2.138961601339341</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.058814502091995</v>
+        <v>2.138961601339341</v>
       </c>
     </row>
     <row r="24">
@@ -2759,94 +2759,94 @@
         <v>2.177793998271496</v>
       </c>
       <c r="C24" t="n">
-        <v>2.321504535843314</v>
+        <v>2.18225005211491</v>
       </c>
       <c r="D24" t="n">
-        <v>2.192080114295521</v>
+        <v>2.248875505280084</v>
       </c>
       <c r="E24" t="n">
-        <v>2.186398140089788</v>
+        <v>2.241034487464382</v>
       </c>
       <c r="F24" t="n">
-        <v>2.221839266446837</v>
+        <v>2.229717729263515</v>
       </c>
       <c r="G24" t="n">
-        <v>2.241406488276141</v>
+        <v>2.236291848819417</v>
       </c>
       <c r="H24" t="n">
-        <v>2.24360504248469</v>
+        <v>2.236291848819417</v>
       </c>
       <c r="I24" t="n">
-        <v>2.193369633505168</v>
+        <v>2.235598292463558</v>
       </c>
       <c r="J24" t="n">
-        <v>2.23481628228821</v>
+        <v>2.222550756197829</v>
       </c>
       <c r="K24" t="n">
-        <v>2.165248312064302</v>
+        <v>2.164223321461615</v>
       </c>
       <c r="L24" t="n">
-        <v>2.152443454831051</v>
+        <v>2.164223321461615</v>
       </c>
       <c r="M24" t="n">
-        <v>2.171637067222801</v>
+        <v>2.144824684518217</v>
       </c>
       <c r="N24" t="n">
-        <v>2.166732243146063</v>
+        <v>2.137476974818445</v>
       </c>
       <c r="O24" t="n">
-        <v>2.187308665045464</v>
+        <v>2.184574214969354</v>
       </c>
       <c r="P24" t="n">
-        <v>2.185785827906327</v>
+        <v>2.218403493824991</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.178229659539478</v>
+        <v>2.204585388649403</v>
       </c>
       <c r="R24" t="n">
-        <v>2.181421070928061</v>
+        <v>2.21149166450155</v>
       </c>
       <c r="S24" t="n">
-        <v>2.150382491623103</v>
+        <v>2.221047049768123</v>
       </c>
       <c r="T24" t="n">
-        <v>2.153806903365266</v>
+        <v>2.183396628849671</v>
       </c>
       <c r="U24" t="n">
-        <v>2.13420089813075</v>
+        <v>2.16528122486616</v>
       </c>
       <c r="V24" t="n">
-        <v>2.159889202409882</v>
+        <v>2.181246236598259</v>
       </c>
       <c r="W24" t="n">
-        <v>2.117951887822385</v>
+        <v>2.214439549990064</v>
       </c>
       <c r="X24" t="n">
-        <v>2.150518626337957</v>
+        <v>2.214439549990064</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.130326282153646</v>
+        <v>2.214439549990064</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.070376497557625</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.048825727523927</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.078098157087123</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.078098157087123</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.049185216434166</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AE24" t="n">
-        <v>2.055064896690988</v>
+        <v>2.195449558122522</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.047987850109807</v>
+        <v>2.195449558122522</v>
       </c>
     </row>
     <row r="25">
@@ -2857,94 +2857,94 @@
         <v>2.231939778861602</v>
       </c>
       <c r="C25" t="n">
-        <v>2.344030105989576</v>
+        <v>2.262278852294265</v>
       </c>
       <c r="D25" t="n">
-        <v>2.211971580032111</v>
+        <v>2.292515823317311</v>
       </c>
       <c r="E25" t="n">
-        <v>2.215576950386985</v>
+        <v>2.271059964261586</v>
       </c>
       <c r="F25" t="n">
-        <v>2.249326423438699</v>
+        <v>2.257274205522536</v>
       </c>
       <c r="G25" t="n">
-        <v>2.277733421861968</v>
+        <v>2.265366125979042</v>
       </c>
       <c r="H25" t="n">
-        <v>2.259360169280374</v>
+        <v>2.265366125979042</v>
       </c>
       <c r="I25" t="n">
-        <v>2.258770686444243</v>
+        <v>2.264364089754164</v>
       </c>
       <c r="J25" t="n">
-        <v>2.246860325683823</v>
+        <v>2.259482476955254</v>
       </c>
       <c r="K25" t="n">
-        <v>2.199546242973981</v>
+        <v>2.225696465098467</v>
       </c>
       <c r="L25" t="n">
-        <v>2.166423014799992</v>
+        <v>2.225696465098467</v>
       </c>
       <c r="M25" t="n">
-        <v>2.210554647970887</v>
+        <v>2.208983594505599</v>
       </c>
       <c r="N25" t="n">
-        <v>2.202227819328055</v>
+        <v>2.193018977105794</v>
       </c>
       <c r="O25" t="n">
-        <v>2.20154099884422</v>
+        <v>2.196653550725369</v>
       </c>
       <c r="P25" t="n">
-        <v>2.201318794468385</v>
+        <v>2.241018065352618</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.19507264083519</v>
+        <v>2.205674386783784</v>
       </c>
       <c r="R25" t="n">
-        <v>2.213923418793413</v>
+        <v>2.193263737063758</v>
       </c>
       <c r="S25" t="n">
-        <v>2.227438670815915</v>
+        <v>2.185782121153124</v>
       </c>
       <c r="T25" t="n">
-        <v>2.198679279501135</v>
+        <v>2.188371811725081</v>
       </c>
       <c r="U25" t="n">
-        <v>2.214428302169967</v>
+        <v>2.168209111819247</v>
       </c>
       <c r="V25" t="n">
-        <v>2.206273454817774</v>
+        <v>2.207171017496961</v>
       </c>
       <c r="W25" t="n">
-        <v>2.19538850591609</v>
+        <v>2.256862345822408</v>
       </c>
       <c r="X25" t="n">
-        <v>2.190209519974594</v>
+        <v>2.256862345822408</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.189110349820935</v>
+        <v>2.256862345822408</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.171501488353504</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.101131890909059</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.114618265673832</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.114618265673832</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.086534020727287</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.104984420890599</v>
+        <v>2.224497943056466</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.109234006844686</v>
+        <v>2.224497943056466</v>
       </c>
     </row>
     <row r="26">
@@ -2955,94 +2955,94 @@
         <v>2.251479930063142</v>
       </c>
       <c r="C26" t="n">
-        <v>2.330259170177121</v>
+        <v>2.292148650475345</v>
       </c>
       <c r="D26" t="n">
-        <v>2.250939532924724</v>
+        <v>2.284335927772412</v>
       </c>
       <c r="E26" t="n">
-        <v>2.253314502807726</v>
+        <v>2.27991658710718</v>
       </c>
       <c r="F26" t="n">
-        <v>2.248401122874366</v>
+        <v>2.250960566517333</v>
       </c>
       <c r="G26" t="n">
-        <v>2.310069683699077</v>
+        <v>2.251266177909552</v>
       </c>
       <c r="H26" t="n">
-        <v>2.272614658533986</v>
+        <v>2.251266177909552</v>
       </c>
       <c r="I26" t="n">
-        <v>2.30961771307661</v>
+        <v>2.25006012927942</v>
       </c>
       <c r="J26" t="n">
-        <v>2.248963864056217</v>
+        <v>2.24403381789625</v>
       </c>
       <c r="K26" t="n">
-        <v>2.245229585495878</v>
+        <v>2.273054880402509</v>
       </c>
       <c r="L26" t="n">
-        <v>2.189164450598556</v>
+        <v>2.273054880402509</v>
       </c>
       <c r="M26" t="n">
-        <v>2.232836923779032</v>
+        <v>2.273054880402509</v>
       </c>
       <c r="N26" t="n">
-        <v>2.256405197948347</v>
+        <v>2.26332920108878</v>
       </c>
       <c r="O26" t="n">
-        <v>2.226795564229056</v>
+        <v>2.221704297672535</v>
       </c>
       <c r="P26" t="n">
-        <v>2.223079222220049</v>
+        <v>2.268536325637093</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.231005174216394</v>
+        <v>2.228292862344124</v>
       </c>
       <c r="R26" t="n">
-        <v>2.263972180455038</v>
+        <v>2.235911170724058</v>
       </c>
       <c r="S26" t="n">
-        <v>2.223942981406905</v>
+        <v>2.222735990522742</v>
       </c>
       <c r="T26" t="n">
-        <v>2.218113445439922</v>
+        <v>2.23632837511208</v>
       </c>
       <c r="U26" t="n">
-        <v>2.23579231920585</v>
+        <v>2.220104113238043</v>
       </c>
       <c r="V26" t="n">
-        <v>2.222587502307924</v>
+        <v>2.225252338005995</v>
       </c>
       <c r="W26" t="n">
-        <v>2.222764857548808</v>
+        <v>2.293623548496633</v>
       </c>
       <c r="X26" t="n">
-        <v>2.235326492491432</v>
+        <v>2.293623548496633</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.219536646386577</v>
+        <v>2.293623548496633</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.244742702883157</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.205116447798296</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.162590249683197</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.167764214590866</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.164682790804913</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.18850632319165</v>
+        <v>2.242000942754997</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.180953313578416</v>
+        <v>2.242000942754997</v>
       </c>
     </row>
     <row r="27">
@@ -3053,94 +3053,94 @@
         <v>2.276075876033678</v>
       </c>
       <c r="C27" t="n">
-        <v>2.39097065376807</v>
+        <v>2.269417817312999</v>
       </c>
       <c r="D27" t="n">
-        <v>2.298815391254125</v>
+        <v>2.300442051869198</v>
       </c>
       <c r="E27" t="n">
-        <v>2.315771964410179</v>
+        <v>2.300442051869198</v>
       </c>
       <c r="F27" t="n">
-        <v>2.278169853116921</v>
+        <v>2.277447130357447</v>
       </c>
       <c r="G27" t="n">
-        <v>2.307914096860734</v>
+        <v>2.27173230844502</v>
       </c>
       <c r="H27" t="n">
-        <v>2.299751921949642</v>
+        <v>2.27173230844502</v>
       </c>
       <c r="I27" t="n">
-        <v>2.315142993306699</v>
+        <v>2.263192131874604</v>
       </c>
       <c r="J27" t="n">
-        <v>2.312482511716178</v>
+        <v>2.267262303572647</v>
       </c>
       <c r="K27" t="n">
-        <v>2.291257934075241</v>
+        <v>2.247344094814676</v>
       </c>
       <c r="L27" t="n">
-        <v>2.244323186653124</v>
+        <v>2.247344094814676</v>
       </c>
       <c r="M27" t="n">
-        <v>2.258540382115302</v>
+        <v>2.247344094814676</v>
       </c>
       <c r="N27" t="n">
-        <v>2.320871066523919</v>
+        <v>2.263584291874252</v>
       </c>
       <c r="O27" t="n">
-        <v>2.284859766120947</v>
+        <v>2.251999763833509</v>
       </c>
       <c r="P27" t="n">
-        <v>2.280754165146078</v>
+        <v>2.277806893633605</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.31538424419684</v>
+        <v>2.285242886710376</v>
       </c>
       <c r="R27" t="n">
-        <v>2.319270076632506</v>
+        <v>2.291125150533937</v>
       </c>
       <c r="S27" t="n">
-        <v>2.238906817906453</v>
+        <v>2.260848477604689</v>
       </c>
       <c r="T27" t="n">
-        <v>2.240479443468465</v>
+        <v>2.270715337059563</v>
       </c>
       <c r="U27" t="n">
-        <v>2.253374847646101</v>
+        <v>2.275635977457982</v>
       </c>
       <c r="V27" t="n">
-        <v>2.257517795183789</v>
+        <v>2.268705317563227</v>
       </c>
       <c r="W27" t="n">
-        <v>2.290146394154319</v>
+        <v>2.296511855394828</v>
       </c>
       <c r="X27" t="n">
-        <v>2.300594500536108</v>
+        <v>2.296511855394828</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.286525808845186</v>
+        <v>2.296511855394828</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.313725169277543</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.258941491022471</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.218200955790074</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.235633657380538</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.261131693671221</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.244513929558061</v>
+        <v>2.282157592583843</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.208213937928318</v>
+        <v>2.282157592583843</v>
       </c>
     </row>
     <row r="28">
@@ -3151,94 +3151,94 @@
         <v>2.326284564242892</v>
       </c>
       <c r="C28" t="n">
-        <v>2.367151265641854</v>
+        <v>2.243962538813891</v>
       </c>
       <c r="D28" t="n">
-        <v>2.352914479415776</v>
+        <v>2.27699315683873</v>
       </c>
       <c r="E28" t="n">
-        <v>2.368581472537047</v>
+        <v>2.27699315683873</v>
       </c>
       <c r="F28" t="n">
-        <v>2.305784320840927</v>
+        <v>2.2747442086532</v>
       </c>
       <c r="G28" t="n">
-        <v>2.297493695266331</v>
+        <v>2.261939630855307</v>
       </c>
       <c r="H28" t="n">
-        <v>2.300922579187267</v>
+        <v>2.261939630855307</v>
       </c>
       <c r="I28" t="n">
-        <v>2.319520111919718</v>
+        <v>2.262806971031086</v>
       </c>
       <c r="J28" t="n">
-        <v>2.349055173929065</v>
+        <v>2.2623740200389</v>
       </c>
       <c r="K28" t="n">
-        <v>2.282078203020104</v>
+        <v>2.227727002724544</v>
       </c>
       <c r="L28" t="n">
-        <v>2.30201878498847</v>
+        <v>2.227727002724544</v>
       </c>
       <c r="M28" t="n">
-        <v>2.236698003465386</v>
+        <v>2.227727002724544</v>
       </c>
       <c r="N28" t="n">
-        <v>2.356390041257036</v>
+        <v>2.245861519550369</v>
       </c>
       <c r="O28" t="n">
-        <v>2.315832464837413</v>
+        <v>2.237584923767714</v>
       </c>
       <c r="P28" t="n">
-        <v>2.317078551046059</v>
+        <v>2.252642426481924</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.378665275969202</v>
+        <v>2.312447039119862</v>
       </c>
       <c r="R28" t="n">
-        <v>2.370488741133875</v>
+        <v>2.316050699851958</v>
       </c>
       <c r="S28" t="n">
-        <v>2.248577806417186</v>
+        <v>2.257324490186341</v>
       </c>
       <c r="T28" t="n">
-        <v>2.239342282155655</v>
+        <v>2.29339102159741</v>
       </c>
       <c r="U28" t="n">
-        <v>2.228507710487468</v>
+        <v>2.299255860445703</v>
       </c>
       <c r="V28" t="n">
-        <v>2.245905191461338</v>
+        <v>2.268578628554108</v>
       </c>
       <c r="W28" t="n">
-        <v>2.363076527830573</v>
+        <v>2.317583079979337</v>
       </c>
       <c r="X28" t="n">
-        <v>2.313202918232228</v>
+        <v>2.317583079979337</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.318057314219285</v>
+        <v>2.317583079979337</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.365411656516711</v>
+        <v>2.280135478187869</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.301888221753266</v>
+        <v>2.293406574274341</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.269889176416637</v>
+        <v>2.293406574274341</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.287242744374513</v>
+        <v>2.293406574274341</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.322974744359796</v>
+        <v>2.293406574274341</v>
       </c>
       <c r="AE28" t="n">
-        <v>2.306501507367097</v>
+        <v>2.293406574274341</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.245303054918832</v>
+        <v>2.293406574274341</v>
       </c>
     </row>
     <row r="29">
@@ -3249,94 +3249,94 @@
         <v>2.304363055371811</v>
       </c>
       <c r="C29" t="n">
-        <v>2.331484766956544</v>
+        <v>2.256522446129247</v>
       </c>
       <c r="D29" t="n">
-        <v>2.364390504845541</v>
+        <v>2.277106595423917</v>
       </c>
       <c r="E29" t="n">
-        <v>2.357624106436387</v>
+        <v>2.277106595423917</v>
       </c>
       <c r="F29" t="n">
-        <v>2.368258100867008</v>
+        <v>2.275914074305208</v>
       </c>
       <c r="G29" t="n">
-        <v>2.341942779473206</v>
+        <v>2.275129574862034</v>
       </c>
       <c r="H29" t="n">
-        <v>2.334059970505008</v>
+        <v>2.275129574862034</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3049991982139</v>
+        <v>2.274622489297447</v>
       </c>
       <c r="J29" t="n">
-        <v>2.367027535030543</v>
+        <v>2.289784598207394</v>
       </c>
       <c r="K29" t="n">
-        <v>2.259182148252346</v>
+        <v>2.282920119501087</v>
       </c>
       <c r="L29" t="n">
-        <v>2.315625346410019</v>
+        <v>2.282920119501087</v>
       </c>
       <c r="M29" t="n">
-        <v>2.22587175316327</v>
+        <v>2.278948027207218</v>
       </c>
       <c r="N29" t="n">
-        <v>2.333788084764198</v>
+        <v>2.214379929116358</v>
       </c>
       <c r="O29" t="n">
-        <v>2.293023438820857</v>
+        <v>2.240171339907099</v>
       </c>
       <c r="P29" t="n">
-        <v>2.295005810951042</v>
+        <v>2.256315308461896</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.367507318864034</v>
+        <v>2.295960299078022</v>
       </c>
       <c r="R29" t="n">
-        <v>2.36141070566973</v>
+        <v>2.295050531002454</v>
       </c>
       <c r="S29" t="n">
-        <v>2.208027653807621</v>
+        <v>2.311432069994693</v>
       </c>
       <c r="T29" t="n">
-        <v>2.235743579629216</v>
+        <v>2.312427613828859</v>
       </c>
       <c r="U29" t="n">
-        <v>2.204217964254671</v>
+        <v>2.301756144250596</v>
       </c>
       <c r="V29" t="n">
-        <v>2.242561157412378</v>
+        <v>2.283586027726793</v>
       </c>
       <c r="W29" t="n">
-        <v>2.340598286076179</v>
+        <v>2.298150796779057</v>
       </c>
       <c r="X29" t="n">
-        <v>2.292776486061351</v>
+        <v>2.298150796779057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.296192515570689</v>
+        <v>2.298150796779057</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.334745979104771</v>
+        <v>2.288544363820607</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.338533529444266</v>
+        <v>2.302154752431871</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.267303667605744</v>
+        <v>2.302154752431871</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.279834359866656</v>
+        <v>2.302154752431871</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.300010200264755</v>
+        <v>2.302154752431871</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.284769382632692</v>
+        <v>2.302154752431871</v>
       </c>
       <c r="AF29" t="n">
-        <v>2.28907931938412</v>
+        <v>2.302154752431871</v>
       </c>
     </row>
     <row r="30">
@@ -3347,94 +3347,94 @@
         <v>2.274998852880866</v>
       </c>
       <c r="C30" t="n">
-        <v>2.410835174624242</v>
+        <v>2.283532205868648</v>
       </c>
       <c r="D30" t="n">
-        <v>2.352065159580684</v>
+        <v>2.292378743613606</v>
       </c>
       <c r="E30" t="n">
-        <v>2.34905007157818</v>
+        <v>2.293141176863219</v>
       </c>
       <c r="F30" t="n">
-        <v>2.383199732815068</v>
+        <v>2.291916748869387</v>
       </c>
       <c r="G30" t="n">
-        <v>2.388860488412868</v>
+        <v>2.295070638089812</v>
       </c>
       <c r="H30" t="n">
-        <v>2.390513801839692</v>
+        <v>2.295070638089812</v>
       </c>
       <c r="I30" t="n">
-        <v>2.279555057544248</v>
+        <v>2.286881194768999</v>
       </c>
       <c r="J30" t="n">
-        <v>2.344866657892597</v>
+        <v>2.287598099863747</v>
       </c>
       <c r="K30" t="n">
-        <v>2.263371172930806</v>
+        <v>2.303858556495411</v>
       </c>
       <c r="L30" t="n">
-        <v>2.307053780441192</v>
+        <v>2.303858556495411</v>
       </c>
       <c r="M30" t="n">
-        <v>2.263300592298501</v>
+        <v>2.300604027665448</v>
       </c>
       <c r="N30" t="n">
-        <v>2.312362697282292</v>
+        <v>2.220047603007374</v>
       </c>
       <c r="O30" t="n">
-        <v>2.263897103889621</v>
+        <v>2.259743653333643</v>
       </c>
       <c r="P30" t="n">
-        <v>2.265770788226502</v>
+        <v>2.268130105199633</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.327585465580607</v>
+        <v>2.295901918196355</v>
       </c>
       <c r="R30" t="n">
-        <v>2.323529968213488</v>
+        <v>2.286080215294361</v>
       </c>
       <c r="S30" t="n">
-        <v>2.234629861424036</v>
+        <v>2.301857924084803</v>
       </c>
       <c r="T30" t="n">
-        <v>2.234834689203058</v>
+        <v>2.278542379683056</v>
       </c>
       <c r="U30" t="n">
-        <v>2.244716300779075</v>
+        <v>2.268671124318313</v>
       </c>
       <c r="V30" t="n">
-        <v>2.229256057521481</v>
+        <v>2.314473512657325</v>
       </c>
       <c r="W30" t="n">
-        <v>2.312244145151536</v>
+        <v>2.31149555353907</v>
       </c>
       <c r="X30" t="n">
-        <v>2.27798115998494</v>
+        <v>2.31149555353907</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.28031133473189</v>
+        <v>2.321294407761213</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.285787591995053</v>
+        <v>2.315364633005617</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.318675416872034</v>
+        <v>2.328626288710291</v>
       </c>
       <c r="AB30" t="n">
-        <v>2.268344689040378</v>
+        <v>2.328626288710291</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.268344689040378</v>
+        <v>2.328626288710291</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.287058339519763</v>
+        <v>2.328626288710291</v>
       </c>
       <c r="AE30" t="n">
-        <v>2.302755120355568</v>
+        <v>2.328626288710291</v>
       </c>
       <c r="AF30" t="n">
-        <v>2.296173088656153</v>
+        <v>2.328626288710291</v>
       </c>
     </row>
     <row r="31">
@@ -3445,94 +3445,94 @@
         <v>2.308719542861941</v>
       </c>
       <c r="C31" t="n">
-        <v>2.444356948971539</v>
+        <v>2.267013076665523</v>
       </c>
       <c r="D31" t="n">
-        <v>2.335537384065988</v>
+        <v>2.322564453398515</v>
       </c>
       <c r="E31" t="n">
-        <v>2.329479965086219</v>
+        <v>2.335108582583075</v>
       </c>
       <c r="F31" t="n">
-        <v>2.334721666477504</v>
+        <v>2.325412088020309</v>
       </c>
       <c r="G31" t="n">
-        <v>2.365068704618763</v>
+        <v>2.331442444528699</v>
       </c>
       <c r="H31" t="n">
-        <v>2.343484670229827</v>
+        <v>2.331442444528699</v>
       </c>
       <c r="I31" t="n">
-        <v>2.324703950469269</v>
+        <v>2.330891394360085</v>
       </c>
       <c r="J31" t="n">
-        <v>2.322652315562794</v>
+        <v>2.331554698836764</v>
       </c>
       <c r="K31" t="n">
-        <v>2.269874741604937</v>
+        <v>2.312233162135307</v>
       </c>
       <c r="L31" t="n">
-        <v>2.286732393155595</v>
+        <v>2.312233162135307</v>
       </c>
       <c r="M31" t="n">
-        <v>2.264473217381779</v>
+        <v>2.312233162135307</v>
       </c>
       <c r="N31" t="n">
-        <v>2.302944086122164</v>
+        <v>2.214944414911076</v>
       </c>
       <c r="O31" t="n">
-        <v>2.254116710196869</v>
+        <v>2.253529434733771</v>
       </c>
       <c r="P31" t="n">
-        <v>2.252810684217959</v>
+        <v>2.254134601247979</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.311242547154082</v>
+        <v>2.313929594899975</v>
       </c>
       <c r="R31" t="n">
-        <v>2.31158598579183</v>
+        <v>2.310348755033195</v>
       </c>
       <c r="S31" t="n">
-        <v>2.26290320633701</v>
+        <v>2.320914553211767</v>
       </c>
       <c r="T31" t="n">
-        <v>2.235060109249939</v>
+        <v>2.292769480329384</v>
       </c>
       <c r="U31" t="n">
-        <v>2.27322522957595</v>
+        <v>2.285102419699819</v>
       </c>
       <c r="V31" t="n">
-        <v>2.267525823257933</v>
+        <v>2.322337013116262</v>
       </c>
       <c r="W31" t="n">
-        <v>2.288444197954931</v>
+        <v>2.313269673965882</v>
       </c>
       <c r="X31" t="n">
-        <v>2.278167999694941</v>
+        <v>2.313269673965882</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.273481175529763</v>
+        <v>2.317060720518153</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.227388138850225</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.25803733578043</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.244398758935033</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.244398758935033</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.26039616708969</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.271646751871171</v>
+        <v>2.306229786372608</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.272138668624715</v>
+        <v>2.306229786372608</v>
       </c>
     </row>
     <row r="32">
@@ -3543,94 +3543,94 @@
         <v>2.362207199816888</v>
       </c>
       <c r="C32" t="n">
-        <v>2.397819144198922</v>
+        <v>2.258262529678096</v>
       </c>
       <c r="D32" t="n">
-        <v>2.336854165139107</v>
+        <v>2.271696441969895</v>
       </c>
       <c r="E32" t="n">
-        <v>2.333071698129942</v>
+        <v>2.271696441969895</v>
       </c>
       <c r="F32" t="n">
-        <v>2.318066509513682</v>
+        <v>2.291287676790584</v>
       </c>
       <c r="G32" t="n">
-        <v>2.337952587638231</v>
+        <v>2.271025772318529</v>
       </c>
       <c r="H32" t="n">
-        <v>2.322803978510283</v>
+        <v>2.271025772318529</v>
       </c>
       <c r="I32" t="n">
-        <v>2.315924536129188</v>
+        <v>2.270324532875205</v>
       </c>
       <c r="J32" t="n">
-        <v>2.307382512561745</v>
+        <v>2.298547791738064</v>
       </c>
       <c r="K32" t="n">
-        <v>2.232051139656577</v>
+        <v>2.28802737987902</v>
       </c>
       <c r="L32" t="n">
-        <v>2.291975119424681</v>
+        <v>2.28802737987902</v>
       </c>
       <c r="M32" t="n">
-        <v>2.293304958679849</v>
+        <v>2.28802737987902</v>
       </c>
       <c r="N32" t="n">
-        <v>2.317334694485986</v>
+        <v>2.238453112228421</v>
       </c>
       <c r="O32" t="n">
-        <v>2.261750424403705</v>
+        <v>2.232242066233624</v>
       </c>
       <c r="P32" t="n">
-        <v>2.262429339385413</v>
+        <v>2.23380292435907</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.299507336425174</v>
+        <v>2.278916103794832</v>
       </c>
       <c r="R32" t="n">
-        <v>2.30813747307984</v>
+        <v>2.290366354251117</v>
       </c>
       <c r="S32" t="n">
-        <v>2.266483666032572</v>
+        <v>2.297207801966981</v>
       </c>
       <c r="T32" t="n">
-        <v>2.252534148312914</v>
+        <v>2.282951718858789</v>
       </c>
       <c r="U32" t="n">
-        <v>2.274621265144887</v>
+        <v>2.280143730822575</v>
       </c>
       <c r="V32" t="n">
-        <v>2.255165714844497</v>
+        <v>2.264061770331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2.301860552385244</v>
+        <v>2.257668347335303</v>
       </c>
       <c r="X32" t="n">
-        <v>2.290874919919408</v>
+        <v>2.257668347335303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.28139954742441</v>
+        <v>2.257668347335303</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.280673459792067</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.301769381770551</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AB32" t="n">
-        <v>2.238092660088211</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.238092660088211</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.261726728844207</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AE32" t="n">
-        <v>2.262411896038832</v>
+        <v>2.254437610450623</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.259680235937627</v>
+        <v>2.254437610450623</v>
       </c>
     </row>
     <row r="33">
@@ -3641,94 +3641,94 @@
         <v>2.430062020739204</v>
       </c>
       <c r="C33" t="n">
-        <v>2.414613113443829</v>
+        <v>2.262648421254179</v>
       </c>
       <c r="D33" t="n">
-        <v>2.338310611563201</v>
+        <v>2.339582443545782</v>
       </c>
       <c r="E33" t="n">
-        <v>2.321973322830937</v>
+        <v>2.339582443545782</v>
       </c>
       <c r="F33" t="n">
-        <v>2.296965705015293</v>
+        <v>2.334170631523536</v>
       </c>
       <c r="G33" t="n">
-        <v>2.332201712842552</v>
+        <v>2.331985593212968</v>
       </c>
       <c r="H33" t="n">
-        <v>2.315082422916632</v>
+        <v>2.331985593212968</v>
       </c>
       <c r="I33" t="n">
-        <v>2.290993868379612</v>
+        <v>2.330684512550378</v>
       </c>
       <c r="J33" t="n">
-        <v>2.269013723521575</v>
+        <v>2.338204827044966</v>
       </c>
       <c r="K33" t="n">
-        <v>2.235546432934993</v>
+        <v>2.290676152647354</v>
       </c>
       <c r="L33" t="n">
-        <v>2.283551355411181</v>
+        <v>2.290676152647354</v>
       </c>
       <c r="M33" t="n">
-        <v>2.263756273098072</v>
+        <v>2.290676152647354</v>
       </c>
       <c r="N33" t="n">
-        <v>2.289511845586246</v>
+        <v>2.241872906719428</v>
       </c>
       <c r="O33" t="n">
-        <v>2.253085707403797</v>
+        <v>2.238964445520914</v>
       </c>
       <c r="P33" t="n">
-        <v>2.253524974435056</v>
+        <v>2.24538458596481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.272549491238927</v>
+        <v>2.274190675608086</v>
       </c>
       <c r="R33" t="n">
-        <v>2.27748267195072</v>
+        <v>2.287766759790128</v>
       </c>
       <c r="S33" t="n">
-        <v>2.24857097564259</v>
+        <v>2.291930283886756</v>
       </c>
       <c r="T33" t="n">
-        <v>2.245657507990395</v>
+        <v>2.256503492428247</v>
       </c>
       <c r="U33" t="n">
-        <v>2.251611557288993</v>
+        <v>2.255424261584592</v>
       </c>
       <c r="V33" t="n">
-        <v>2.245198816506427</v>
+        <v>2.262682560654039</v>
       </c>
       <c r="W33" t="n">
-        <v>2.284170854431956</v>
+        <v>2.257208560374103</v>
       </c>
       <c r="X33" t="n">
-        <v>2.248268206020937</v>
+        <v>2.257208560374103</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.256222748459176</v>
+        <v>2.257208560374103</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.251544108657799</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.247860538755022</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.227022337374448</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.227022337374448</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.246617990542797</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.255881358420347</v>
+        <v>2.235203696354839</v>
       </c>
       <c r="AF33" t="n">
-        <v>2.247466143948005</v>
+        <v>2.235203696354839</v>
       </c>
     </row>
     <row r="34">
@@ -3739,94 +3739,94 @@
         <v>2.436874211800444</v>
       </c>
       <c r="C34" t="n">
-        <v>2.385158045281345</v>
+        <v>2.299394801764974</v>
       </c>
       <c r="D34" t="n">
-        <v>2.307712328193626</v>
+        <v>2.346302611410234</v>
       </c>
       <c r="E34" t="n">
-        <v>2.287425411370115</v>
+        <v>2.346302611410234</v>
       </c>
       <c r="F34" t="n">
-        <v>2.252291584866678</v>
+        <v>2.298171678568538</v>
       </c>
       <c r="G34" t="n">
-        <v>2.291991639303809</v>
+        <v>2.345552064720636</v>
       </c>
       <c r="H34" t="n">
-        <v>2.298306829207926</v>
+        <v>2.345552064720636</v>
       </c>
       <c r="I34" t="n">
-        <v>2.217579965909867</v>
+        <v>2.342997481974417</v>
       </c>
       <c r="J34" t="n">
-        <v>2.272773812461904</v>
+        <v>2.308387951417774</v>
       </c>
       <c r="K34" t="n">
-        <v>2.245579913840065</v>
+        <v>2.302468096048805</v>
       </c>
       <c r="L34" t="n">
-        <v>2.252688487680469</v>
+        <v>2.302468096048805</v>
       </c>
       <c r="M34" t="n">
-        <v>2.255202993456777</v>
+        <v>2.302468096048805</v>
       </c>
       <c r="N34" t="n">
-        <v>2.267495936258835</v>
+        <v>2.275173525517675</v>
       </c>
       <c r="O34" t="n">
-        <v>2.238469563003676</v>
+        <v>2.248710983802148</v>
       </c>
       <c r="P34" t="n">
-        <v>2.240110909540526</v>
+        <v>2.253544523743467</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.258481398942986</v>
+        <v>2.284938684828049</v>
       </c>
       <c r="R34" t="n">
-        <v>2.261800520300448</v>
+        <v>2.283604582389299</v>
       </c>
       <c r="S34" t="n">
-        <v>2.207948743796571</v>
+        <v>2.283230412803102</v>
       </c>
       <c r="T34" t="n">
-        <v>2.222410650300544</v>
+        <v>2.244688645504723</v>
       </c>
       <c r="U34" t="n">
-        <v>2.232025483809968</v>
+        <v>2.245088700162452</v>
       </c>
       <c r="V34" t="n">
-        <v>2.219486945901918</v>
+        <v>2.307370017820052</v>
       </c>
       <c r="W34" t="n">
-        <v>2.243984351351362</v>
+        <v>2.262770286928859</v>
       </c>
       <c r="X34" t="n">
-        <v>2.215933153559483</v>
+        <v>2.262770286928859</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.205165893413546</v>
+        <v>2.262770286928859</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.245996856806185</v>
+        <v>2.288031497179674</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.238474312298453</v>
+        <v>2.289221372697264</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.192943321395333</v>
+        <v>2.289221372697264</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.192943321395333</v>
+        <v>2.289221372697264</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.202882900880937</v>
+        <v>2.289221372697264</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.22198953486775</v>
+        <v>2.290295065083506</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.224425370199046</v>
+        <v>2.290295065083506</v>
       </c>
     </row>
     <row r="35">
@@ -3837,94 +3837,94 @@
         <v>2.35064133926459</v>
       </c>
       <c r="C35" t="n">
-        <v>2.411122318719871</v>
+        <v>2.291002336941022</v>
       </c>
       <c r="D35" t="n">
-        <v>2.306581794037171</v>
+        <v>2.273409059669007</v>
       </c>
       <c r="E35" t="n">
-        <v>2.300384736944078</v>
+        <v>2.273409059669007</v>
       </c>
       <c r="F35" t="n">
-        <v>2.270361256934354</v>
+        <v>2.270900569547837</v>
       </c>
       <c r="G35" t="n">
-        <v>2.311493218992976</v>
+        <v>2.265139211660795</v>
       </c>
       <c r="H35" t="n">
-        <v>2.296085434997746</v>
+        <v>2.264634864599618</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24788724144382</v>
+        <v>2.253323077684926</v>
       </c>
       <c r="J35" t="n">
-        <v>2.295998784975871</v>
+        <v>2.251210372621212</v>
       </c>
       <c r="K35" t="n">
-        <v>2.239260884725561</v>
+        <v>2.229775159606451</v>
       </c>
       <c r="L35" t="n">
-        <v>2.255145555500104</v>
+        <v>2.229775159606451</v>
       </c>
       <c r="M35" t="n">
-        <v>2.293657651547434</v>
+        <v>2.229775159606451</v>
       </c>
       <c r="N35" t="n">
-        <v>2.274663603372639</v>
+        <v>2.286717695073055</v>
       </c>
       <c r="O35" t="n">
-        <v>2.238135610976593</v>
+        <v>2.222380438689243</v>
       </c>
       <c r="P35" t="n">
-        <v>2.236313886567542</v>
+        <v>2.222786763246822</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.276936889248539</v>
+        <v>2.24745302051845</v>
       </c>
       <c r="R35" t="n">
-        <v>2.275431590908666</v>
+        <v>2.22419687385011</v>
       </c>
       <c r="S35" t="n">
-        <v>2.24176129071633</v>
+        <v>2.223737427544225</v>
       </c>
       <c r="T35" t="n">
-        <v>2.253460998374675</v>
+        <v>2.257530699735727</v>
       </c>
       <c r="U35" t="n">
-        <v>2.255588056931653</v>
+        <v>2.258051948459542</v>
       </c>
       <c r="V35" t="n">
-        <v>2.258407727804505</v>
+        <v>2.25950550142259</v>
       </c>
       <c r="W35" t="n">
-        <v>2.247035934428231</v>
+        <v>2.2340676267939</v>
       </c>
       <c r="X35" t="n">
-        <v>2.231220746631578</v>
+        <v>2.242990225214385</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.223582179159343</v>
+        <v>2.242990225214385</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.265471067492754</v>
+        <v>2.253600144535655</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.261070426258474</v>
+        <v>2.26114751126903</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.20508574982939</v>
+        <v>2.26114751126903</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.20508574982939</v>
+        <v>2.26114751126903</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.222771130612662</v>
+        <v>2.26114751126903</v>
       </c>
       <c r="AE35" t="n">
-        <v>2.222564380617343</v>
+        <v>2.269198216580889</v>
       </c>
       <c r="AF35" t="n">
-        <v>2.225843260319722</v>
+        <v>2.269198216580889</v>
       </c>
     </row>
     <row r="36">
@@ -3935,94 +3935,94 @@
         <v>2.353369534294322</v>
       </c>
       <c r="C36" t="n">
-        <v>2.420749592713165</v>
+        <v>2.291216176257015</v>
       </c>
       <c r="D36" t="n">
-        <v>2.319962734413017</v>
+        <v>2.328306090984354</v>
       </c>
       <c r="E36" t="n">
-        <v>2.302194231655946</v>
+        <v>2.328306090984354</v>
       </c>
       <c r="F36" t="n">
-        <v>2.296023786503684</v>
+        <v>2.334584346919589</v>
       </c>
       <c r="G36" t="n">
-        <v>2.269148218159807</v>
+        <v>2.318617466053062</v>
       </c>
       <c r="H36" t="n">
-        <v>2.284180363526465</v>
+        <v>2.306331071529211</v>
       </c>
       <c r="I36" t="n">
-        <v>2.249037578832248</v>
+        <v>2.287239101332738</v>
       </c>
       <c r="J36" t="n">
-        <v>2.290845814058457</v>
+        <v>2.255099904687093</v>
       </c>
       <c r="K36" t="n">
-        <v>2.219677375828097</v>
+        <v>2.234280120167599</v>
       </c>
       <c r="L36" t="n">
-        <v>2.279406663343802</v>
+        <v>2.234280120167599</v>
       </c>
       <c r="M36" t="n">
-        <v>2.226942073679706</v>
+        <v>2.234280120167599</v>
       </c>
       <c r="N36" t="n">
-        <v>2.214833490969705</v>
+        <v>2.281244547367892</v>
       </c>
       <c r="O36" t="n">
-        <v>2.232602604576441</v>
+        <v>2.256818196786767</v>
       </c>
       <c r="P36" t="n">
-        <v>2.23527099102668</v>
+        <v>2.246998415510655</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.240845511768831</v>
+        <v>2.238842641008493</v>
       </c>
       <c r="R36" t="n">
-        <v>2.249137307876053</v>
+        <v>2.257723184724368</v>
       </c>
       <c r="S36" t="n">
-        <v>2.234461806792355</v>
+        <v>2.259813688208153</v>
       </c>
       <c r="T36" t="n">
-        <v>2.228139418751114</v>
+        <v>2.275185480248548</v>
       </c>
       <c r="U36" t="n">
-        <v>2.228430502670348</v>
+        <v>2.276606341229988</v>
       </c>
       <c r="V36" t="n">
-        <v>2.248424922394501</v>
+        <v>2.209163718236084</v>
       </c>
       <c r="W36" t="n">
-        <v>2.205642308739189</v>
+        <v>2.2099765799471</v>
       </c>
       <c r="X36" t="n">
-        <v>2.238769580889756</v>
+        <v>2.2120556500005</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.231260661007618</v>
+        <v>2.2120556500005</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.24099720197587</v>
+        <v>2.228729397160528</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.268316556614449</v>
+        <v>2.228729397160528</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.214076504788939</v>
+        <v>2.228729397160528</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.214076504788939</v>
+        <v>2.228729397160528</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.232117438925675</v>
+        <v>2.228729397160528</v>
       </c>
       <c r="AE36" t="n">
-        <v>2.232635562953711</v>
+        <v>2.235499333898592</v>
       </c>
       <c r="AF36" t="n">
-        <v>2.235984141511552</v>
+        <v>2.235499333898592</v>
       </c>
     </row>
     <row r="37">
@@ -4033,94 +4033,94 @@
         <v>2.451803442875877</v>
       </c>
       <c r="C37" t="n">
-        <v>2.433152071076442</v>
+        <v>2.221462773029974</v>
       </c>
       <c r="D37" t="n">
-        <v>2.298420794350313</v>
+        <v>2.21398943996917</v>
       </c>
       <c r="E37" t="n">
-        <v>2.270385982592064</v>
+        <v>2.21398943996917</v>
       </c>
       <c r="F37" t="n">
-        <v>2.270600659635055</v>
+        <v>2.219515330352789</v>
       </c>
       <c r="G37" t="n">
-        <v>2.283294036305647</v>
+        <v>2.209181975567453</v>
       </c>
       <c r="H37" t="n">
-        <v>2.21258798590721</v>
+        <v>2.196701219987562</v>
       </c>
       <c r="I37" t="n">
-        <v>2.214254647209015</v>
+        <v>2.196153256581297</v>
       </c>
       <c r="J37" t="n">
-        <v>2.198824968303775</v>
+        <v>2.233857863069982</v>
       </c>
       <c r="K37" t="n">
-        <v>2.17550668933433</v>
+        <v>2.193506649968362</v>
       </c>
       <c r="L37" t="n">
-        <v>2.233932052809042</v>
+        <v>2.193506649968362</v>
       </c>
       <c r="M37" t="n">
-        <v>2.145448371172707</v>
+        <v>2.193506649968362</v>
       </c>
       <c r="N37" t="n">
-        <v>2.161509894260363</v>
+        <v>2.307980304840282</v>
       </c>
       <c r="O37" t="n">
-        <v>2.190000675848451</v>
+        <v>2.27117075797331</v>
       </c>
       <c r="P37" t="n">
-        <v>2.193008974790958</v>
+        <v>2.243140632550792</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.180388203612377</v>
+        <v>2.384467500527871</v>
       </c>
       <c r="R37" t="n">
-        <v>2.171609064305682</v>
+        <v>2.375562118894244</v>
       </c>
       <c r="S37" t="n">
-        <v>2.175816092783515</v>
+        <v>2.372013954642034</v>
       </c>
       <c r="T37" t="n">
-        <v>2.174940188376862</v>
+        <v>2.306956364906541</v>
       </c>
       <c r="U37" t="n">
-        <v>2.186845604813243</v>
+        <v>2.307772453082249</v>
       </c>
       <c r="V37" t="n">
-        <v>2.177727596844551</v>
+        <v>2.298703276137155</v>
       </c>
       <c r="W37" t="n">
-        <v>2.151236301707909</v>
+        <v>2.270365135640475</v>
       </c>
       <c r="X37" t="n">
-        <v>2.182987923681394</v>
+        <v>2.262889378551093</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.205879399309735</v>
+        <v>2.262889378551093</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.173063038989322</v>
+        <v>2.234423026095812</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.154542604907871</v>
+        <v>2.234423026095812</v>
       </c>
       <c r="AB37" t="n">
-        <v>2.202488933914398</v>
+        <v>2.238440449989177</v>
       </c>
       <c r="AC37" t="n">
-        <v>2.202488933914398</v>
+        <v>2.238440449989177</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.197779315129238</v>
+        <v>2.238440449989177</v>
       </c>
       <c r="AE37" t="n">
-        <v>2.190045785647691</v>
+        <v>2.238440449989177</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.192589874358213</v>
+        <v>2.238440449989177</v>
       </c>
     </row>
     <row r="38">
@@ -4131,94 +4131,94 @@
         <v>2.430149544154374</v>
       </c>
       <c r="C38" t="n">
-        <v>2.416004648839906</v>
+        <v>2.10360185490382</v>
       </c>
       <c r="D38" t="n">
-        <v>2.298433468494232</v>
+        <v>2.131138177892809</v>
       </c>
       <c r="E38" t="n">
-        <v>2.264062687127094</v>
+        <v>2.131138177892809</v>
       </c>
       <c r="F38" t="n">
-        <v>2.261781261951864</v>
+        <v>2.123387174519517</v>
       </c>
       <c r="G38" t="n">
-        <v>2.320352642195957</v>
+        <v>2.114268164963724</v>
       </c>
       <c r="H38" t="n">
-        <v>2.175951605210098</v>
+        <v>2.112877972601906</v>
       </c>
       <c r="I38" t="n">
-        <v>2.159348683277969</v>
+        <v>2.115086806593344</v>
       </c>
       <c r="J38" t="n">
-        <v>2.213612043333887</v>
+        <v>2.115471608374614</v>
       </c>
       <c r="K38" t="n">
-        <v>2.155821471299852</v>
+        <v>2.100428689296778</v>
       </c>
       <c r="L38" t="n">
-        <v>2.158642814454221</v>
+        <v>2.100428689296778</v>
       </c>
       <c r="M38" t="n">
-        <v>2.193653152960925</v>
+        <v>2.100428689296778</v>
       </c>
       <c r="N38" t="n">
-        <v>2.239319238954142</v>
+        <v>2.152663931483797</v>
       </c>
       <c r="O38" t="n">
-        <v>2.207044789980624</v>
+        <v>2.25496171158762</v>
       </c>
       <c r="P38" t="n">
-        <v>2.202051751438092</v>
+        <v>2.231615314939294</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.28180925412177</v>
+        <v>2.321204009204356</v>
       </c>
       <c r="R38" t="n">
-        <v>2.258011928376429</v>
+        <v>2.326641216063047</v>
       </c>
       <c r="S38" t="n">
-        <v>2.204531848616996</v>
+        <v>2.325767182489768</v>
       </c>
       <c r="T38" t="n">
-        <v>2.239150366888996</v>
+        <v>2.20296557644573</v>
       </c>
       <c r="U38" t="n">
-        <v>2.23426406492922</v>
+        <v>2.209189339952501</v>
       </c>
       <c r="V38" t="n">
-        <v>2.232064216280608</v>
+        <v>2.141141786040685</v>
       </c>
       <c r="W38" t="n">
-        <v>2.264468400132131</v>
+        <v>2.242893803257085</v>
       </c>
       <c r="X38" t="n">
-        <v>2.174841858549256</v>
+        <v>2.233807139478557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.188677174640601</v>
+        <v>2.233807139478557</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.24753307661618</v>
+        <v>2.196317706101472</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.251856574298789</v>
+        <v>2.196317706101472</v>
       </c>
       <c r="AB38" t="n">
-        <v>2.174441287421989</v>
+        <v>2.215914659370529</v>
       </c>
       <c r="AC38" t="n">
-        <v>2.174441287421989</v>
+        <v>2.215914659370529</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.163375434329416</v>
+        <v>2.215914659370529</v>
       </c>
       <c r="AE38" t="n">
-        <v>2.146582524439396</v>
+        <v>2.215914659370529</v>
       </c>
       <c r="AF38" t="n">
-        <v>2.15058881917091</v>
+        <v>2.215914659370529</v>
       </c>
     </row>
     <row r="39">
@@ -4229,94 +4229,94 @@
         <v>2.366804390516315</v>
       </c>
       <c r="C39" t="n">
-        <v>2.283952566170116</v>
+        <v>2.120526074311964</v>
       </c>
       <c r="D39" t="n">
-        <v>2.309752442062024</v>
+        <v>2.130984938195726</v>
       </c>
       <c r="E39" t="n">
-        <v>2.288790564472265</v>
+        <v>2.086590715043509</v>
       </c>
       <c r="F39" t="n">
-        <v>2.289768202106539</v>
+        <v>2.084494443805808</v>
       </c>
       <c r="G39" t="n">
-        <v>2.328666359628566</v>
+        <v>2.082566413453146</v>
       </c>
       <c r="H39" t="n">
-        <v>2.150307558199223</v>
+        <v>2.093050686156537</v>
       </c>
       <c r="I39" t="n">
-        <v>2.158175905315405</v>
+        <v>2.079155459942523</v>
       </c>
       <c r="J39" t="n">
-        <v>2.214335125635954</v>
+        <v>2.084914642270619</v>
       </c>
       <c r="K39" t="n">
-        <v>2.150458556235477</v>
+        <v>2.057433812520403</v>
       </c>
       <c r="L39" t="n">
-        <v>2.176767942714758</v>
+        <v>2.057433812520403</v>
       </c>
       <c r="M39" t="n">
-        <v>2.161851477728935</v>
+        <v>2.057433812520403</v>
       </c>
       <c r="N39" t="n">
-        <v>2.202394704445468</v>
+        <v>2.133293490915102</v>
       </c>
       <c r="O39" t="n">
-        <v>2.224805400342839</v>
+        <v>2.186847498159414</v>
       </c>
       <c r="P39" t="n">
-        <v>2.22707679831817</v>
+        <v>2.177442518018808</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.270523963753968</v>
+        <v>2.169817034632879</v>
       </c>
       <c r="R39" t="n">
-        <v>2.26184444428656</v>
+        <v>2.33339175760795</v>
       </c>
       <c r="S39" t="n">
-        <v>2.225089314237202</v>
+        <v>2.327258781990673</v>
       </c>
       <c r="T39" t="n">
-        <v>2.236505544660867</v>
+        <v>2.156649805082173</v>
       </c>
       <c r="U39" t="n">
-        <v>2.213986584869579</v>
+        <v>2.157036441532423</v>
       </c>
       <c r="V39" t="n">
-        <v>2.257270983544019</v>
+        <v>2.148673311441118</v>
       </c>
       <c r="W39" t="n">
-        <v>2.281808575553463</v>
+        <v>2.172971580267616</v>
       </c>
       <c r="X39" t="n">
-        <v>2.222339375623261</v>
+        <v>2.171533509234006</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.227919011238686</v>
+        <v>2.171533509234006</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.254219713896739</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.256641582713638</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AB39" t="n">
-        <v>2.16908597408219</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.165640138197205</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.188055630224286</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AE39" t="n">
-        <v>2.194788623210996</v>
+        <v>2.153174229407546</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.197949294524995</v>
+        <v>2.153174229407546</v>
       </c>
     </row>
     <row r="40">
@@ -4327,94 +4327,94 @@
         <v>2.153767956559718</v>
       </c>
       <c r="C40" t="n">
-        <v>2.147472315035398</v>
+        <v>2.157153212803428</v>
       </c>
       <c r="D40" t="n">
-        <v>2.205899004915642</v>
+        <v>2.083100955349011</v>
       </c>
       <c r="E40" t="n">
-        <v>2.186160573642339</v>
+        <v>2.069843409483415</v>
       </c>
       <c r="F40" t="n">
-        <v>2.193544941118441</v>
+        <v>2.068747452592135</v>
       </c>
       <c r="G40" t="n">
-        <v>2.189452702886907</v>
+        <v>2.0426815042177</v>
       </c>
       <c r="H40" t="n">
-        <v>2.116637774104523</v>
+        <v>2.045589387874541</v>
       </c>
       <c r="I40" t="n">
-        <v>2.136438265735205</v>
+        <v>2.047589577244535</v>
       </c>
       <c r="J40" t="n">
-        <v>2.121931587300646</v>
+        <v>2.051139743969815</v>
       </c>
       <c r="K40" t="n">
-        <v>2.153389172349525</v>
+        <v>2.070035401840391</v>
       </c>
       <c r="L40" t="n">
-        <v>2.151353218420838</v>
+        <v>2.070035401840391</v>
       </c>
       <c r="M40" t="n">
-        <v>2.115931471500148</v>
+        <v>2.063985260782407</v>
       </c>
       <c r="N40" t="n">
-        <v>2.111616332416689</v>
+        <v>2.175391418612976</v>
       </c>
       <c r="O40" t="n">
-        <v>2.145764181675762</v>
+        <v>2.185221198357867</v>
       </c>
       <c r="P40" t="n">
-        <v>2.153781968470662</v>
+        <v>2.163406136758956</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.102172935013823</v>
+        <v>2.104986563283991</v>
       </c>
       <c r="R40" t="n">
-        <v>2.146478476899405</v>
+        <v>2.136269794937866</v>
       </c>
       <c r="S40" t="n">
-        <v>2.109439285436236</v>
+        <v>2.135942482234559</v>
       </c>
       <c r="T40" t="n">
-        <v>2.10460627307175</v>
+        <v>2.103848820078918</v>
       </c>
       <c r="U40" t="n">
-        <v>2.095134931088341</v>
+        <v>2.105263546106188</v>
       </c>
       <c r="V40" t="n">
-        <v>2.099432696537489</v>
+        <v>2.099606097177391</v>
       </c>
       <c r="W40" t="n">
-        <v>2.108371926835929</v>
+        <v>2.163804751695082</v>
       </c>
       <c r="X40" t="n">
-        <v>2.18778972282884</v>
+        <v>2.163804751695082</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.20040907683608</v>
+        <v>2.163804751695082</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.090955109937078</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.135781195203434</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.171903172174451</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.163719783071621</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.167917464092092</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.18853481025364</v>
+        <v>2.110654890373997</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.190925718231695</v>
+        <v>2.110654890373997</v>
       </c>
     </row>
     <row r="41">
@@ -4425,94 +4425,94 @@
         <v>2.119073651270929</v>
       </c>
       <c r="C41" t="n">
-        <v>2.083196335931699</v>
+        <v>2.166401778954704</v>
       </c>
       <c r="D41" t="n">
-        <v>2.089905750584158</v>
+        <v>2.066140527254153</v>
       </c>
       <c r="E41" t="n">
-        <v>2.073313023040363</v>
+        <v>2.066140527254153</v>
       </c>
       <c r="F41" t="n">
-        <v>2.085994449210066</v>
+        <v>2.069510250561486</v>
       </c>
       <c r="G41" t="n">
-        <v>2.110746270385827</v>
+        <v>2.061267081253414</v>
       </c>
       <c r="H41" t="n">
-        <v>2.099050783118906</v>
+        <v>2.061267081253414</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1122749155393</v>
+        <v>2.064461828199591</v>
       </c>
       <c r="J41" t="n">
-        <v>2.084644297054226</v>
+        <v>2.070630683134914</v>
       </c>
       <c r="K41" t="n">
-        <v>2.135104138668072</v>
+        <v>2.086866612550568</v>
       </c>
       <c r="L41" t="n">
-        <v>2.101324551727831</v>
+        <v>2.086866612550568</v>
       </c>
       <c r="M41" t="n">
-        <v>2.080304043660877</v>
+        <v>2.074799446412731</v>
       </c>
       <c r="N41" t="n">
-        <v>2.111820445273047</v>
+        <v>2.191686373973713</v>
       </c>
       <c r="O41" t="n">
-        <v>2.086000277155241</v>
+        <v>2.23370385513481</v>
       </c>
       <c r="P41" t="n">
-        <v>2.086078971814911</v>
+        <v>2.220769120821217</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.099019869274232</v>
+        <v>2.068976995187824</v>
       </c>
       <c r="R41" t="n">
-        <v>2.133760968220336</v>
+        <v>2.075676587467962</v>
       </c>
       <c r="S41" t="n">
-        <v>2.08982200057304</v>
+        <v>2.084601676691982</v>
       </c>
       <c r="T41" t="n">
-        <v>2.074596944671379</v>
+        <v>2.052872277976297</v>
       </c>
       <c r="U41" t="n">
-        <v>2.0759283655362</v>
+        <v>2.051326642089923</v>
       </c>
       <c r="V41" t="n">
-        <v>2.075286918860382</v>
+        <v>2.065532912750358</v>
       </c>
       <c r="W41" t="n">
-        <v>2.093048245546331</v>
+        <v>2.13368462416819</v>
       </c>
       <c r="X41" t="n">
-        <v>2.118642128717618</v>
+        <v>2.13368462416819</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.114095595603332</v>
+        <v>2.13368462416819</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.094072211968903</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.125204279296547</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AB41" t="n">
-        <v>2.120727595967111</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.116084509761329</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AD41" t="n">
-        <v>2.099891382773421</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AE41" t="n">
-        <v>2.151569651040596</v>
+        <v>2.077694304629766</v>
       </c>
       <c r="AF41" t="n">
-        <v>2.152960382116149</v>
+        <v>2.077694304629766</v>
       </c>
     </row>
     <row r="42">
@@ -4523,94 +4523,94 @@
         <v>2.104156376813902</v>
       </c>
       <c r="C42" t="n">
-        <v>2.078654751539956</v>
+        <v>2.153138304518887</v>
       </c>
       <c r="D42" t="n">
-        <v>2.062159325547647</v>
+        <v>2.115291708029118</v>
       </c>
       <c r="E42" t="n">
-        <v>2.057942701630251</v>
+        <v>2.095291193946309</v>
       </c>
       <c r="F42" t="n">
-        <v>2.078775719169274</v>
+        <v>2.093477136053544</v>
       </c>
       <c r="G42" t="n">
-        <v>2.115715470691209</v>
+        <v>2.113618944196766</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101993258944793</v>
+        <v>2.113618944196766</v>
       </c>
       <c r="I42" t="n">
-        <v>2.092580525770754</v>
+        <v>2.066303353977936</v>
       </c>
       <c r="J42" t="n">
-        <v>2.100599012036922</v>
+        <v>2.086693273759828</v>
       </c>
       <c r="K42" t="n">
-        <v>2.079382546049498</v>
+        <v>2.081056728578134</v>
       </c>
       <c r="L42" t="n">
-        <v>2.101512758048041</v>
+        <v>2.081056728578134</v>
       </c>
       <c r="M42" t="n">
-        <v>2.068717382660482</v>
+        <v>2.074344635696635</v>
       </c>
       <c r="N42" t="n">
-        <v>2.107538554230832</v>
+        <v>2.210785895479918</v>
       </c>
       <c r="O42" t="n">
-        <v>2.094103800129386</v>
+        <v>2.23827142419729</v>
       </c>
       <c r="P42" t="n">
-        <v>2.092901067045649</v>
+        <v>2.204345873886605</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.121318788800694</v>
+        <v>2.095018994440803</v>
       </c>
       <c r="R42" t="n">
-        <v>2.113529238036671</v>
+        <v>2.066063454937586</v>
       </c>
       <c r="S42" t="n">
-        <v>2.065953007118511</v>
+        <v>2.069755926575642</v>
       </c>
       <c r="T42" t="n">
-        <v>2.086010101392537</v>
+        <v>2.062407631911035</v>
       </c>
       <c r="U42" t="n">
-        <v>2.08688499825157</v>
+        <v>2.057550879142348</v>
       </c>
       <c r="V42" t="n">
-        <v>2.098645072230342</v>
+        <v>2.082486769024639</v>
       </c>
       <c r="W42" t="n">
-        <v>2.127501264854525</v>
+        <v>2.133552164709302</v>
       </c>
       <c r="X42" t="n">
-        <v>2.085194989564499</v>
+        <v>2.133552164709302</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.071208289639386</v>
+        <v>2.133552164709302</v>
       </c>
       <c r="Z42" t="n">
-        <v>2.12322513755694</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.1055776456905</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AB42" t="n">
-        <v>2.068828865086344</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.068828865086344</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.095100592299245</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.094410457583328</v>
+        <v>2.067755179263224</v>
       </c>
       <c r="AF42" t="n">
-        <v>2.094976819011064</v>
+        <v>2.067755179263224</v>
       </c>
     </row>
   </sheetData>
